--- a/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>8.357764253721108</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>11.28723242853352</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5.520143497441432</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>101.537733139296</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.789651471257445</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,131 +442,818 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+        <v>7.856105282181719</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2">
+        <v>80.41946937652827</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="C3">
+        <v>7.502104192825533</v>
+      </c>
+      <c r="D3">
+        <v>10.15178452328541</v>
+      </c>
+      <c r="E3">
+        <v>5.570750019380246</v>
+      </c>
+      <c r="F3">
+        <v>91.43476079918496</v>
+      </c>
+      <c r="G3">
+        <v>1.857091234191067</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>7.446425370393775</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>72.29278641609892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="C4">
+        <v>7.006993399071868</v>
+      </c>
+      <c r="D4">
+        <v>9.501045692054383</v>
+      </c>
+      <c r="E4">
+        <v>5.607654759517884</v>
+      </c>
+      <c r="F4">
+        <v>85.67417952112125</v>
+      </c>
+      <c r="G4">
+        <v>1.893977106087858</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>7.233938349450049</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>67.64743214800816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="C5">
+        <v>6.808696226648118</v>
+      </c>
+      <c r="D5">
+        <v>9.241590111460201</v>
+      </c>
+      <c r="E5">
+        <v>5.623938074787459</v>
+      </c>
+      <c r="F5">
+        <v>83.3876015242809</v>
+      </c>
+      <c r="G5">
+        <v>1.908325617147459</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>7.154279705343203</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>65.80052027661488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="C6">
+        <v>6.775896549200741</v>
+      </c>
+      <c r="D6">
+        <v>9.198736987526679</v>
+      </c>
+      <c r="E6">
+        <v>5.626712497850543</v>
+      </c>
+      <c r="F6">
+        <v>83.01061913130806</v>
+      </c>
+      <c r="G6">
+        <v>1.910675884585649</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>7.141414087966767</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>65.49583987774385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="C7">
+        <v>7.004308958915824</v>
+      </c>
+      <c r="D7">
+        <v>9.497528949469189</v>
+      </c>
+      <c r="E7">
+        <v>5.60786953975119</v>
+      </c>
+      <c r="F7">
+        <v>85.64314192112083</v>
+      </c>
+      <c r="G7">
+        <v>1.894172953981913</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>7.232838691204864</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>67.62237489228249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="C8">
+        <v>8.053019385943042</v>
+      </c>
+      <c r="D8">
+        <v>10.88114741775762</v>
+      </c>
+      <c r="E8">
+        <v>5.536203534037862</v>
+      </c>
+      <c r="F8">
+        <v>97.92024395155853</v>
+      </c>
+      <c r="G8">
+        <v>1.814219860514712</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>7.70434919177234</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>77.51210732350329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="C9">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D9">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E9">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F9">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G9">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="C10">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D10">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E10">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F10">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G10">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="C11">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D11">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E11">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F11">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G11">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="C12">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D12">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E12">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F12">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G12">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="C13">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D13">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E13">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F13">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G13">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="C14">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D14">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E14">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F14">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G14">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="C15">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D15">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E15">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F15">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G15">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D16">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E16">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F16">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G16">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D17">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E17">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F17">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G17">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D18">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E18">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F18">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G18">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D19">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E19">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F19">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G19">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D20">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E20">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F20">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G20">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D21">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E21">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F21">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G21">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D22">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E22">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F22">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G22">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D23">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E23">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F23">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G23">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D24">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E24">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F24">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G24">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>108.3821222041229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>11.22662856534658</v>
+      </c>
+      <c r="D25">
+        <v>15.2490563329028</v>
+      </c>
+      <c r="E25">
+        <v>5.481974309574628</v>
+      </c>
+      <c r="F25">
+        <v>136.4168961141335</v>
+      </c>
+      <c r="G25">
+        <v>1.524952018514305</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>10.13921927699837</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>108.3821222041229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
@@ -420,840 +420,1128 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2">
-        <v>8.357764253721108</v>
+        <v>6.504968369757445</v>
       </c>
       <c r="D2">
-        <v>11.28723242853352</v>
+        <v>4.552892727133962</v>
       </c>
       <c r="E2">
-        <v>5.520143497441432</v>
+        <v>7.463042721814854</v>
       </c>
       <c r="F2">
-        <v>101.537733139296</v>
+        <v>23.06690063799659</v>
       </c>
       <c r="G2">
-        <v>1.789651471257445</v>
+        <v>31.54983844689449</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.68107254064843</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.98185792095073</v>
       </c>
       <c r="J2">
-        <v>7.856105282181719</v>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>20.8822068787467</v>
       </c>
       <c r="L2">
+        <v>5.417668911200328</v>
+      </c>
+      <c r="M2">
+        <v>15.99655164519077</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>80.41946937652827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
       <c r="C3">
-        <v>7.502104192825533</v>
+        <v>6.271262451878785</v>
       </c>
       <c r="D3">
-        <v>10.15178452328541</v>
+        <v>4.557299398478435</v>
       </c>
       <c r="E3">
-        <v>5.570750019380246</v>
+        <v>7.401065812314564</v>
       </c>
       <c r="F3">
-        <v>91.43476079918496</v>
+        <v>22.59185744515149</v>
       </c>
       <c r="G3">
-        <v>1.857091234191067</v>
+        <v>30.85320400188191</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.718041236321</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.80156053151915</v>
       </c>
       <c r="J3">
-        <v>7.446425370393775</v>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>19.49203241102078</v>
       </c>
       <c r="L3">
+        <v>5.468247698274459</v>
+      </c>
+      <c r="M3">
+        <v>15.11794154208237</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>72.29278641609892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
-        <v>7.006993399071868</v>
+        <v>6.12629773838194</v>
       </c>
       <c r="D4">
-        <v>9.501045692054383</v>
+        <v>4.560904046777442</v>
       </c>
       <c r="E4">
-        <v>5.607654759517884</v>
+        <v>7.367501672887563</v>
       </c>
       <c r="F4">
-        <v>85.67417952112125</v>
+        <v>22.32900765090424</v>
       </c>
       <c r="G4">
-        <v>1.893977106087858</v>
+        <v>30.47451348794811</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.75286998959961</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.7150731757733</v>
       </c>
       <c r="J4">
-        <v>7.233938349450049</v>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>18.59028291938264</v>
       </c>
       <c r="L4">
+        <v>5.501765593609612</v>
+      </c>
+      <c r="M4">
+        <v>14.55825691574971</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>67.64743214800816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
       <c r="C5">
-        <v>6.808696226648118</v>
+        <v>6.066929244364381</v>
       </c>
       <c r="D5">
-        <v>9.241590111460201</v>
+        <v>4.562592921338775</v>
       </c>
       <c r="E5">
-        <v>5.623938074787459</v>
+        <v>7.354929376089394</v>
       </c>
       <c r="F5">
-        <v>83.3876015242809</v>
+        <v>22.22901532502631</v>
       </c>
       <c r="G5">
-        <v>1.908325617147459</v>
+        <v>30.33226025587687</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.76995074418609</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.68568033541607</v>
       </c>
       <c r="J5">
-        <v>7.154279705343203</v>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>18.21061674847326</v>
       </c>
       <c r="L5">
+        <v>5.51602862796627</v>
+      </c>
+      <c r="M5">
+        <v>14.32529205463019</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>65.80052027661488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
       <c r="C6">
-        <v>6.775896549200741</v>
+        <v>6.057055724992129</v>
       </c>
       <c r="D6">
-        <v>9.198736987526679</v>
+        <v>4.562886478155099</v>
       </c>
       <c r="E6">
-        <v>5.626712497850543</v>
+        <v>7.352907800845927</v>
       </c>
       <c r="F6">
-        <v>83.01061913130806</v>
+        <v>22.21283742832524</v>
       </c>
       <c r="G6">
-        <v>1.910675884585649</v>
+        <v>30.30935893839031</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.77295674735485</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.68114587142111</v>
       </c>
       <c r="J6">
-        <v>7.141414087966767</v>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>18.14683465412652</v>
       </c>
       <c r="L6">
+        <v>5.518433073879838</v>
+      </c>
+      <c r="M6">
+        <v>14.28631973434508</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>65.49583987774385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
       <c r="C7">
-        <v>7.004308958915824</v>
+        <v>6.125498160488725</v>
       </c>
       <c r="D7">
-        <v>9.497528949469189</v>
+        <v>4.560925940463346</v>
       </c>
       <c r="E7">
-        <v>5.60786953975119</v>
+        <v>7.367327675082344</v>
       </c>
       <c r="F7">
-        <v>85.64314192112083</v>
+        <v>22.32763047797231</v>
       </c>
       <c r="G7">
-        <v>1.894172953981913</v>
+        <v>30.4725465546407</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.75308886531576</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.71465340560799</v>
       </c>
       <c r="J7">
-        <v>7.232838691204864</v>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>18.58521209124685</v>
       </c>
       <c r="L7">
+        <v>5.501955522249442</v>
+      </c>
+      <c r="M7">
+        <v>14.55513457419852</v>
+      </c>
+      <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>67.62237489228249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
       <c r="C8">
-        <v>8.053019385943042</v>
+        <v>6.424733873724238</v>
       </c>
       <c r="D8">
-        <v>10.88114741775762</v>
+        <v>4.554221666257064</v>
       </c>
       <c r="E8">
-        <v>5.536203534037862</v>
+        <v>7.440727304824782</v>
       </c>
       <c r="F8">
-        <v>97.92024395155853</v>
+        <v>22.8970543935743</v>
       </c>
       <c r="G8">
-        <v>1.814219860514712</v>
+        <v>31.29931829949406</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.69120269857238</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>18.91452668081213</v>
       </c>
       <c r="J8">
-        <v>7.70434919177234</v>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>20.41282198136296</v>
       </c>
       <c r="L8">
+        <v>5.434588033728168</v>
+      </c>
+      <c r="M8">
+        <v>15.69790497761316</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>77.51210732350329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
       <c r="C9">
-        <v>11.22662856534658</v>
+        <v>6.997014090572494</v>
       </c>
       <c r="D9">
-        <v>15.2490563329028</v>
+        <v>4.54852518778925</v>
       </c>
       <c r="E9">
-        <v>5.481974309574628</v>
+        <v>7.621302652323562</v>
       </c>
       <c r="F9">
-        <v>136.4168961141335</v>
+        <v>24.24678415274052</v>
       </c>
       <c r="G9">
-        <v>1.524952018514305</v>
+        <v>33.31866433022881</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.67357701244107</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>19.50849140719417</v>
       </c>
       <c r="J9">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>23.61862747255605</v>
       </c>
       <c r="L9">
+        <v>5.322759177639521</v>
+      </c>
+      <c r="M9">
+        <v>17.91338651583412</v>
+      </c>
+      <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
       <c r="C10">
-        <v>11.22662856534658</v>
+        <v>7.405411833692743</v>
       </c>
       <c r="D10">
-        <v>15.2490563329028</v>
+        <v>4.549396068023746</v>
       </c>
       <c r="E10">
-        <v>5.481974309574628</v>
+        <v>7.777660154664794</v>
       </c>
       <c r="F10">
-        <v>136.4168961141335</v>
+        <v>25.38507608859687</v>
       </c>
       <c r="G10">
-        <v>1.524952018514305</v>
+        <v>35.05377852639644</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.73440560752387</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.0804606818848</v>
       </c>
       <c r="J10">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>25.7497480329622</v>
       </c>
       <c r="L10">
+        <v>5.254103519119988</v>
+      </c>
+      <c r="M10">
+        <v>19.54073260976369</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
       <c r="C11">
-        <v>11.22662856534658</v>
+        <v>7.588090335540208</v>
       </c>
       <c r="D11">
-        <v>15.2490563329028</v>
+        <v>4.551026673157224</v>
       </c>
       <c r="E11">
-        <v>5.481974309574628</v>
+        <v>7.854221486770957</v>
       </c>
       <c r="F11">
-        <v>136.4168961141335</v>
+        <v>25.93548810123774</v>
       </c>
       <c r="G11">
-        <v>1.524952018514305</v>
+        <v>35.8989926992572</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.78043168724349</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20.3724888412423</v>
       </c>
       <c r="J11">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>26.67211446260098</v>
       </c>
       <c r="L11">
+        <v>5.22609206633176</v>
+      </c>
+      <c r="M11">
+        <v>20.24571120449788</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
       <c r="C12">
-        <v>11.22662856534658</v>
+        <v>7.656790266096023</v>
       </c>
       <c r="D12">
-        <v>15.2490563329028</v>
+        <v>4.55183498436311</v>
       </c>
       <c r="E12">
-        <v>5.481974309574628</v>
+        <v>7.884018390959091</v>
       </c>
       <c r="F12">
-        <v>136.4168961141335</v>
+        <v>26.14865884713365</v>
       </c>
       <c r="G12">
-        <v>1.524952018514305</v>
+        <v>36.22717853848953</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.80069578847527</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.48783108771397</v>
       </c>
       <c r="J12">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>27.01475694948313</v>
       </c>
       <c r="L12">
+        <v>5.215975396710967</v>
+      </c>
+      <c r="M12">
+        <v>20.50770231007928</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
       <c r="C13">
-        <v>11.22662856534658</v>
+        <v>7.642016081798906</v>
       </c>
       <c r="D13">
-        <v>15.2490563329028</v>
+        <v>4.551652181032301</v>
       </c>
       <c r="E13">
-        <v>5.481974309574628</v>
+        <v>7.87756491445057</v>
       </c>
       <c r="F13">
-        <v>136.4168961141335</v>
+        <v>26.10253684975492</v>
       </c>
       <c r="G13">
-        <v>1.524952018514305</v>
+        <v>36.15613518707453</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.79620232109995</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20.46277568048571</v>
       </c>
       <c r="J13">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>26.94125572188067</v>
       </c>
       <c r="L13">
+        <v>5.218131909207682</v>
+      </c>
+      <c r="M13">
+        <v>20.45149701549216</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
       <c r="C14">
-        <v>11.22662856534658</v>
+        <v>7.593752009798354</v>
       </c>
       <c r="D14">
-        <v>15.2490563329028</v>
+        <v>4.55108926600329</v>
       </c>
       <c r="E14">
-        <v>5.481974309574628</v>
+        <v>7.856656628128285</v>
       </c>
       <c r="F14">
-        <v>136.4168961141335</v>
+        <v>25.95293040985315</v>
       </c>
       <c r="G14">
-        <v>1.524952018514305</v>
+        <v>35.92582946171778</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.78204087932067</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>20.38188176188566</v>
       </c>
       <c r="J14">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>26.70043608902176</v>
       </c>
       <c r="L14">
+        <v>5.225249759697568</v>
+      </c>
+      <c r="M14">
+        <v>20.26736430446719</v>
+      </c>
+      <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="C15">
-        <v>11.22662856534658</v>
+        <v>7.564126082082979</v>
       </c>
       <c r="D15">
-        <v>15.2490563329028</v>
+        <v>4.5507697430544</v>
       </c>
       <c r="E15">
-        <v>5.481974309574628</v>
+        <v>7.843955222847853</v>
       </c>
       <c r="F15">
-        <v>136.4168961141335</v>
+        <v>25.86191142710119</v>
       </c>
       <c r="G15">
-        <v>1.524952018514305</v>
+        <v>35.78582086681612</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.77374164095802</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>20.33295669581301</v>
       </c>
       <c r="J15">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>26.55206685027322</v>
       </c>
       <c r="L15">
+        <v>5.22967441622357</v>
+      </c>
+      <c r="M15">
+        <v>20.15393395824316</v>
+      </c>
+      <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
       <c r="C16">
-        <v>11.22662856534658</v>
+        <v>7.39340812807368</v>
       </c>
       <c r="D16">
-        <v>15.2490563329028</v>
+        <v>4.549315443136409</v>
       </c>
       <c r="E16">
-        <v>5.481974309574628</v>
+        <v>7.772768007815285</v>
       </c>
       <c r="F16">
-        <v>136.4168961141335</v>
+        <v>25.34976574778607</v>
       </c>
       <c r="G16">
-        <v>1.524952018514305</v>
+        <v>34.99967358443936</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.73178370419344</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.06203207735051</v>
       </c>
       <c r="J16">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>25.68853283584519</v>
       </c>
       <c r="L16">
+        <v>5.256001225879406</v>
+      </c>
+      <c r="M16">
+        <v>19.49395916447425</v>
+      </c>
+      <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
       <c r="C17">
-        <v>11.22662856534658</v>
+        <v>7.28785896905308</v>
       </c>
       <c r="D17">
-        <v>15.2490563329028</v>
+        <v>4.548748378938786</v>
       </c>
       <c r="E17">
-        <v>5.481974309574628</v>
+        <v>7.73050497638585</v>
       </c>
       <c r="F17">
-        <v>136.4168961141335</v>
+        <v>25.04396608994415</v>
       </c>
       <c r="G17">
-        <v>1.524952018514305</v>
+        <v>34.53177255836927</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.71088333839307</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>19.90411261034966</v>
       </c>
       <c r="J17">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>25.146813547958</v>
       </c>
       <c r="L17">
+        <v>5.272995389570128</v>
+      </c>
+      <c r="M17">
+        <v>19.08011696103726</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
       <c r="C18">
-        <v>11.22662856534658</v>
+        <v>7.226858984357744</v>
       </c>
       <c r="D18">
-        <v>15.2490563329028</v>
+        <v>4.548537511392537</v>
       </c>
       <c r="E18">
-        <v>5.481974309574628</v>
+        <v>7.706706381253517</v>
       </c>
       <c r="F18">
-        <v>136.4168961141335</v>
+        <v>24.87114300451011</v>
       </c>
       <c r="G18">
-        <v>1.524952018514305</v>
+        <v>34.26790523616766</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.70057777514458</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>19.81626795697441</v>
       </c>
       <c r="J18">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>24.83078987355776</v>
       </c>
       <c r="L18">
+        <v>5.283071278788889</v>
+      </c>
+      <c r="M18">
+        <v>18.83875540983718</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
       <c r="C19">
-        <v>11.22662856534658</v>
+        <v>7.206156540720701</v>
       </c>
       <c r="D19">
-        <v>15.2490563329028</v>
+        <v>4.548485539379882</v>
       </c>
       <c r="E19">
-        <v>5.481974309574628</v>
+        <v>7.698735478374945</v>
       </c>
       <c r="F19">
-        <v>136.4168961141335</v>
+        <v>24.81315293678665</v>
       </c>
       <c r="G19">
-        <v>1.524952018514305</v>
+        <v>34.17946477423519</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.69737725642145</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>19.78703261078018</v>
       </c>
       <c r="J19">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>24.7230230201784</v>
       </c>
       <c r="L19">
+        <v>5.286533756623454</v>
+      </c>
+      <c r="M19">
+        <v>18.75645935868891</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
       <c r="C20">
-        <v>11.22662856534658</v>
+        <v>7.299125211133586</v>
       </c>
       <c r="D20">
-        <v>15.2490563329028</v>
+        <v>4.548796720616648</v>
       </c>
       <c r="E20">
-        <v>5.481974309574628</v>
+        <v>7.734951000626985</v>
       </c>
       <c r="F20">
-        <v>136.4168961141335</v>
+        <v>25.07620142740539</v>
       </c>
       <c r="G20">
-        <v>1.524952018514305</v>
+        <v>34.58103677270301</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.71292923308265</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>19.92061300084982</v>
       </c>
       <c r="J20">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>25.20493918786456</v>
       </c>
       <c r="L20">
+        <v>5.271154958428943</v>
+      </c>
+      <c r="M20">
+        <v>19.12451510148807</v>
+      </c>
+      <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
       <c r="C21">
-        <v>11.22662856534658</v>
+        <v>7.607941464272497</v>
       </c>
       <c r="D21">
-        <v>15.2490563329028</v>
+        <v>4.551249313381583</v>
       </c>
       <c r="E21">
-        <v>5.481974309574628</v>
+        <v>7.862775863896355</v>
       </c>
       <c r="F21">
-        <v>136.4168961141335</v>
+        <v>25.99674427756939</v>
       </c>
       <c r="G21">
-        <v>1.524952018514305</v>
+        <v>35.99325470129537</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.78612192459119</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>20.40551174711359</v>
       </c>
       <c r="J21">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>26.77134967561619</v>
       </c>
       <c r="L21">
+        <v>5.223145523513282</v>
+      </c>
+      <c r="M21">
+        <v>20.32158249489953</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
       <c r="C22">
-        <v>11.22662856534658</v>
+        <v>7.806985958020548</v>
       </c>
       <c r="D22">
-        <v>15.2490563329028</v>
+        <v>4.553972087953174</v>
       </c>
       <c r="E22">
-        <v>5.481974309574628</v>
+        <v>7.951019636538953</v>
       </c>
       <c r="F22">
-        <v>136.4168961141335</v>
+        <v>26.62604473999397</v>
       </c>
       <c r="G22">
-        <v>1.524952018514305</v>
+        <v>36.96360993810573</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.85057483063298</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.75023182764842</v>
       </c>
       <c r="J22">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>27.75647020822591</v>
       </c>
       <c r="L22">
+        <v>5.194643520207574</v>
+      </c>
+      <c r="M22">
+        <v>21.07502884735972</v>
+      </c>
+      <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
       <c r="C23">
-        <v>11.22662856534658</v>
+        <v>7.70101461248237</v>
       </c>
       <c r="D23">
-        <v>15.2490563329028</v>
+        <v>4.552411540064661</v>
       </c>
       <c r="E23">
-        <v>5.481974309574628</v>
+        <v>7.903483862667391</v>
       </c>
       <c r="F23">
-        <v>136.4168961141335</v>
+        <v>26.28762218633739</v>
       </c>
       <c r="G23">
-        <v>1.524952018514305</v>
+        <v>36.44134576498546</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.81458932846982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>20.56364550390884</v>
       </c>
       <c r="J23">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>27.23417937846838</v>
       </c>
       <c r="L23">
+        <v>5.209582614324259</v>
+      </c>
+      <c r="M23">
+        <v>20.67550716398273</v>
+      </c>
+      <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
       <c r="C24">
-        <v>11.22662856534658</v>
+        <v>7.294032732335981</v>
       </c>
       <c r="D24">
-        <v>15.2490563329028</v>
+        <v>4.548774507678444</v>
       </c>
       <c r="E24">
-        <v>5.481974309574628</v>
+        <v>7.732939400596325</v>
       </c>
       <c r="F24">
-        <v>136.4168961141335</v>
+        <v>25.06161853696531</v>
       </c>
       <c r="G24">
-        <v>1.524952018514305</v>
+        <v>34.55874843234476</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.71199897156845</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>19.91314401381825</v>
       </c>
       <c r="J24">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>25.17867486809235</v>
       </c>
       <c r="L24">
+        <v>5.271986067152933</v>
+      </c>
+      <c r="M24">
+        <v>19.10445341937265</v>
+      </c>
+      <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
       <c r="C25">
-        <v>11.22662856534658</v>
+        <v>6.844116389607631</v>
       </c>
       <c r="D25">
-        <v>15.2490563329028</v>
+        <v>4.54921982919844</v>
       </c>
       <c r="E25">
-        <v>5.481974309574628</v>
+        <v>7.568388111848526</v>
       </c>
       <c r="F25">
-        <v>136.4168961141335</v>
+        <v>23.85615746742065</v>
       </c>
       <c r="G25">
-        <v>1.524952018514305</v>
+        <v>32.72869564438783</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.66616651840402</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>19.3248422846219</v>
       </c>
       <c r="J25">
-        <v>10.13921927699837</v>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>22.79123207970902</v>
       </c>
       <c r="L25">
+        <v>5.350730231154588</v>
+      </c>
+      <c r="M25">
+        <v>17.28211569795476</v>
+      </c>
+      <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>108.3821222041229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.504968369757445</v>
+        <v>9.011401415084759</v>
       </c>
       <c r="D2">
-        <v>4.552892727133962</v>
+        <v>6.36283652711164</v>
       </c>
       <c r="E2">
-        <v>7.463042721814854</v>
+        <v>12.10265317743298</v>
       </c>
       <c r="F2">
-        <v>23.06690063799659</v>
+        <v>31.37987966924902</v>
       </c>
       <c r="G2">
-        <v>31.54983844689449</v>
+        <v>41.09093900627082</v>
       </c>
       <c r="H2">
-        <v>10.68107254064843</v>
+        <v>17.34030167517576</v>
       </c>
       <c r="I2">
-        <v>18.98185792095073</v>
+        <v>28.2865733793764</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.8822068787467</v>
+        <v>15.9397738775668</v>
       </c>
       <c r="L2">
-        <v>5.417668911200328</v>
+        <v>9.522728301295974</v>
       </c>
       <c r="M2">
-        <v>15.99655164519077</v>
+        <v>17.65933568960175</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.271262451878785</v>
+        <v>8.985308260655922</v>
       </c>
       <c r="D3">
-        <v>4.557299398478435</v>
+        <v>6.365330603851305</v>
       </c>
       <c r="E3">
-        <v>7.401065812314564</v>
+        <v>12.12534011658075</v>
       </c>
       <c r="F3">
-        <v>22.59185744515149</v>
+        <v>31.45515730929046</v>
       </c>
       <c r="G3">
-        <v>30.85320400188191</v>
+        <v>41.20870801798418</v>
       </c>
       <c r="H3">
-        <v>10.718041236321</v>
+        <v>17.41481715928546</v>
       </c>
       <c r="I3">
-        <v>18.80156053151915</v>
+        <v>28.38611856401548</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.49203241102078</v>
+        <v>15.46882273521691</v>
       </c>
       <c r="L3">
-        <v>5.468247698274459</v>
+        <v>9.551196242636509</v>
       </c>
       <c r="M3">
-        <v>15.11794154208237</v>
+        <v>17.47274325961215</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.12629773838194</v>
+        <v>8.970581150613253</v>
       </c>
       <c r="D4">
-        <v>4.560904046777442</v>
+        <v>6.367257055817283</v>
       </c>
       <c r="E4">
-        <v>7.367501672887563</v>
+        <v>12.14123325594021</v>
       </c>
       <c r="F4">
-        <v>22.32900765090424</v>
+        <v>31.51210915043865</v>
       </c>
       <c r="G4">
-        <v>30.47451348794811</v>
+        <v>41.29781531524849</v>
       </c>
       <c r="H4">
-        <v>10.75286998959961</v>
+        <v>17.46459853887502</v>
       </c>
       <c r="I4">
-        <v>18.7150731757733</v>
+        <v>28.45532809354622</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.59028291938264</v>
+        <v>15.17416551669826</v>
       </c>
       <c r="L4">
-        <v>5.501765593609612</v>
+        <v>9.569833560874054</v>
       </c>
       <c r="M4">
-        <v>14.55825691574971</v>
+        <v>17.35983836787511</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.066929244364381</v>
+        <v>8.964908981736908</v>
       </c>
       <c r="D5">
-        <v>4.562592921338775</v>
+        <v>6.368141874688033</v>
       </c>
       <c r="E5">
-        <v>7.354929376089394</v>
+        <v>12.14820322794811</v>
       </c>
       <c r="F5">
-        <v>22.22901532502631</v>
+        <v>31.5380012966001</v>
       </c>
       <c r="G5">
-        <v>30.33226025587687</v>
+        <v>41.33832020622656</v>
       </c>
       <c r="H5">
-        <v>10.76995074418609</v>
+        <v>17.48589506502505</v>
       </c>
       <c r="I5">
-        <v>18.68568033541607</v>
+        <v>28.48555596711674</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.21061674847326</v>
+        <v>15.05288617286968</v>
       </c>
       <c r="L5">
-        <v>5.51602862796627</v>
+        <v>9.577719943569036</v>
       </c>
       <c r="M5">
-        <v>14.32529205463019</v>
+        <v>17.31429106895969</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.057055724992129</v>
+        <v>8.963987114137279</v>
       </c>
       <c r="D6">
-        <v>4.562886478155099</v>
+        <v>6.368294836885053</v>
       </c>
       <c r="E6">
-        <v>7.352907800845927</v>
+        <v>12.14939037636605</v>
       </c>
       <c r="F6">
-        <v>22.21283742832524</v>
+        <v>31.54246231292979</v>
       </c>
       <c r="G6">
-        <v>30.30935893839031</v>
+        <v>41.34529831586293</v>
       </c>
       <c r="H6">
-        <v>10.77295674735485</v>
+        <v>17.48949226898883</v>
       </c>
       <c r="I6">
-        <v>18.68114587142111</v>
+        <v>28.49069726978021</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.14683465412652</v>
+        <v>15.03268050685307</v>
       </c>
       <c r="L6">
-        <v>5.518433073879838</v>
+        <v>9.579047089554441</v>
       </c>
       <c r="M6">
-        <v>14.28631973434508</v>
+        <v>17.3067571707639</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.125498160488725</v>
+        <v>8.970503315807616</v>
       </c>
       <c r="D7">
-        <v>4.560925940463346</v>
+        <v>6.367268584264428</v>
       </c>
       <c r="E7">
-        <v>7.367327675082344</v>
+        <v>12.14132525813534</v>
       </c>
       <c r="F7">
-        <v>22.32763047797231</v>
+        <v>31.51244749462066</v>
       </c>
       <c r="G7">
-        <v>30.4725465546407</v>
+        <v>41.29834464364377</v>
       </c>
       <c r="H7">
-        <v>10.75308886531576</v>
+        <v>17.46488166473758</v>
       </c>
       <c r="I7">
-        <v>18.71465340560799</v>
+        <v>28.455727573219</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.58521209124685</v>
+        <v>15.17253453408292</v>
       </c>
       <c r="L7">
-        <v>5.501955522249442</v>
+        <v>9.569938738537484</v>
       </c>
       <c r="M7">
-        <v>14.55513457419852</v>
+        <v>17.35922217144488</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6.424733873724238</v>
+        <v>9.002138253462254</v>
       </c>
       <c r="D8">
-        <v>4.554221666257064</v>
+        <v>6.363614741159207</v>
       </c>
       <c r="E8">
-        <v>7.440727304824782</v>
+        <v>12.110067998358</v>
       </c>
       <c r="F8">
-        <v>22.8970543935743</v>
+        <v>31.40359974454744</v>
       </c>
       <c r="G8">
-        <v>31.29931829949406</v>
+        <v>41.12804181860746</v>
       </c>
       <c r="H8">
-        <v>10.69120269857238</v>
+        <v>17.36515679989189</v>
       </c>
       <c r="I8">
-        <v>18.91452668081213</v>
+        <v>28.31921222721141</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.41282198136296</v>
+        <v>15.77863182410469</v>
       </c>
       <c r="L8">
-        <v>5.434588033728168</v>
+        <v>9.532303946687062</v>
       </c>
       <c r="M8">
-        <v>15.69790497761316</v>
+        <v>17.59467997990779</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.997014090572494</v>
+        <v>9.074264601079033</v>
       </c>
       <c r="D9">
-        <v>4.54852518778925</v>
+        <v>6.359566147255791</v>
       </c>
       <c r="E9">
-        <v>7.621302652323562</v>
+        <v>12.06436192804085</v>
       </c>
       <c r="F9">
-        <v>24.24678415274052</v>
+        <v>31.27589300158283</v>
       </c>
       <c r="G9">
-        <v>33.31866433022881</v>
+        <v>40.92861707449882</v>
       </c>
       <c r="H9">
-        <v>10.67357701244107</v>
+        <v>17.20168674489323</v>
       </c>
       <c r="I9">
-        <v>19.50849140719417</v>
+        <v>28.11609211478219</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.61862747255605</v>
+        <v>16.91649066430951</v>
       </c>
       <c r="L9">
-        <v>5.322759177639521</v>
+        <v>9.467673124965261</v>
       </c>
       <c r="M9">
-        <v>17.91338651583412</v>
+        <v>18.06764754939774</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.405411833692743</v>
+        <v>9.133152522039612</v>
       </c>
       <c r="D10">
-        <v>4.549396068023746</v>
+        <v>6.358468064446734</v>
       </c>
       <c r="E10">
-        <v>7.777660154664794</v>
+        <v>12.04029929205396</v>
       </c>
       <c r="F10">
-        <v>25.38507608859687</v>
+        <v>31.23506958936909</v>
       </c>
       <c r="G10">
-        <v>35.05377852639644</v>
+        <v>40.86567960778043</v>
       </c>
       <c r="H10">
-        <v>10.73440560752387</v>
+        <v>17.10131916079234</v>
       </c>
       <c r="I10">
-        <v>20.0804606818848</v>
+        <v>28.00676901218935</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.7497480329622</v>
+        <v>17.71294061239163</v>
       </c>
       <c r="L10">
-        <v>5.254103519119988</v>
+        <v>9.425756976498194</v>
       </c>
       <c r="M10">
-        <v>19.54073260976369</v>
+        <v>18.4193314602773</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.588090335540208</v>
+        <v>9.161163107602661</v>
       </c>
       <c r="D11">
-        <v>4.551026673157224</v>
+        <v>6.35837106706431</v>
       </c>
       <c r="E11">
-        <v>7.854221486770957</v>
+        <v>12.03142103218811</v>
       </c>
       <c r="F11">
-        <v>25.93548810123774</v>
+        <v>31.22813380375931</v>
       </c>
       <c r="G11">
-        <v>35.8989926992572</v>
+        <v>40.85547373623983</v>
       </c>
       <c r="H11">
-        <v>10.78043168724349</v>
+        <v>17.05998094421797</v>
       </c>
       <c r="I11">
-        <v>20.3724888412423</v>
+        <v>27.96580722609561</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.67211446260098</v>
+        <v>18.06511563762236</v>
       </c>
       <c r="L11">
-        <v>5.22609206633176</v>
+        <v>9.407892606863792</v>
       </c>
       <c r="M11">
-        <v>20.24571120449788</v>
+        <v>18.5796678951841</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.656790266096023</v>
+        <v>9.171940301827609</v>
       </c>
       <c r="D12">
-        <v>4.55183498436311</v>
+        <v>6.358391803433554</v>
       </c>
       <c r="E12">
-        <v>7.884018390959091</v>
+        <v>12.02835645215267</v>
       </c>
       <c r="F12">
-        <v>26.14865884713365</v>
+        <v>31.22718840326759</v>
       </c>
       <c r="G12">
-        <v>36.22717853848953</v>
+        <v>40.8542766157456</v>
       </c>
       <c r="H12">
-        <v>10.80069578847527</v>
+        <v>17.04495142405447</v>
       </c>
       <c r="I12">
-        <v>20.48783108771397</v>
+        <v>27.95156513776574</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.01475694948313</v>
+        <v>18.19690416880603</v>
       </c>
       <c r="L12">
-        <v>5.215975396710967</v>
+        <v>9.401300565313168</v>
       </c>
       <c r="M12">
-        <v>20.50770231007928</v>
+        <v>18.64038711762499</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>7.642016081798906</v>
+        <v>9.169611761586554</v>
       </c>
       <c r="D13">
-        <v>4.551652181032301</v>
+        <v>6.358384788201281</v>
       </c>
       <c r="E13">
-        <v>7.87756491445057</v>
+        <v>12.02900323617007</v>
       </c>
       <c r="F13">
-        <v>26.10253684975492</v>
+        <v>31.22731713888725</v>
       </c>
       <c r="G13">
-        <v>36.15613518707453</v>
+        <v>40.85441553803854</v>
       </c>
       <c r="H13">
-        <v>10.79620232109995</v>
+        <v>17.04816048012433</v>
       </c>
       <c r="I13">
-        <v>20.46277568048571</v>
+        <v>27.954575851595</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.94125572188067</v>
+        <v>18.16859279725939</v>
       </c>
       <c r="L13">
-        <v>5.218131909207682</v>
+        <v>9.402712597697795</v>
       </c>
       <c r="M13">
-        <v>20.45149701549216</v>
+        <v>18.62731074972242</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.593752009798354</v>
+        <v>9.162046375517773</v>
       </c>
       <c r="D14">
-        <v>4.55108926600329</v>
+        <v>6.358371623702329</v>
       </c>
       <c r="E14">
-        <v>7.856656628128285</v>
+        <v>12.03116294646146</v>
       </c>
       <c r="F14">
-        <v>25.95293040985315</v>
+        <v>31.22802229508233</v>
       </c>
       <c r="G14">
-        <v>35.92582946171778</v>
+        <v>40.85532169241684</v>
       </c>
       <c r="H14">
-        <v>10.78204087932067</v>
+        <v>17.05873192492377</v>
       </c>
       <c r="I14">
-        <v>20.38188176188566</v>
+        <v>27.96461003833866</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.70043608902176</v>
+        <v>18.07599009268956</v>
       </c>
       <c r="L14">
-        <v>5.225249759697568</v>
+        <v>9.407346813742103</v>
       </c>
       <c r="M14">
-        <v>20.26736430446719</v>
+        <v>18.58466350600629</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.564126082082979</v>
+        <v>9.157434353726455</v>
       </c>
       <c r="D15">
-        <v>4.5507697430544</v>
+        <v>6.358371031697477</v>
       </c>
       <c r="E15">
-        <v>7.843955222847853</v>
+        <v>12.03252456519011</v>
       </c>
       <c r="F15">
-        <v>25.86191142710119</v>
+        <v>31.22867335113222</v>
       </c>
       <c r="G15">
-        <v>35.78582086681612</v>
+        <v>40.8562246268642</v>
       </c>
       <c r="H15">
-        <v>10.77374164095802</v>
+        <v>17.06528864634615</v>
       </c>
       <c r="I15">
-        <v>20.33295669581301</v>
+        <v>27.97092179476007</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.55206685027322</v>
+        <v>18.01906025820637</v>
       </c>
       <c r="L15">
-        <v>5.22967441622357</v>
+        <v>9.41020790212942</v>
       </c>
       <c r="M15">
-        <v>20.15393395824316</v>
+        <v>18.55853986737793</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.39340812807368</v>
+        <v>9.131346088000761</v>
       </c>
       <c r="D16">
-        <v>4.549315443136409</v>
+        <v>6.358482467719517</v>
       </c>
       <c r="E16">
-        <v>7.772768007815285</v>
+        <v>12.04092112609609</v>
       </c>
       <c r="F16">
-        <v>25.34976574778607</v>
+        <v>31.23575770021296</v>
       </c>
       <c r="G16">
-        <v>34.99967358443936</v>
+        <v>40.86671896236524</v>
       </c>
       <c r="H16">
-        <v>10.73178370419344</v>
+        <v>17.10410790604475</v>
       </c>
       <c r="I16">
-        <v>20.06203207735051</v>
+        <v>28.00962314193176</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.68853283584519</v>
+        <v>17.68971109848711</v>
       </c>
       <c r="L16">
-        <v>5.256001225879406</v>
+        <v>9.426948650605596</v>
       </c>
       <c r="M16">
-        <v>19.49395916447425</v>
+        <v>18.40885613254892</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>7.28785896905308</v>
+        <v>9.115650929954011</v>
       </c>
       <c r="D17">
-        <v>4.548748378938786</v>
+        <v>6.358653630179689</v>
       </c>
       <c r="E17">
-        <v>7.73050497638585</v>
+        <v>12.04660185897152</v>
       </c>
       <c r="F17">
-        <v>25.04396608994415</v>
+        <v>31.24308987670913</v>
       </c>
       <c r="G17">
-        <v>34.53177255836927</v>
+        <v>40.87788982312599</v>
       </c>
       <c r="H17">
-        <v>10.71088333839307</v>
+        <v>17.12903089319623</v>
       </c>
       <c r="I17">
-        <v>19.90411261034966</v>
+        <v>28.03561729752167</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.146813547958</v>
+        <v>17.48498466534398</v>
       </c>
       <c r="L17">
-        <v>5.272995389570128</v>
+        <v>9.437526618656666</v>
       </c>
       <c r="M17">
-        <v>19.08011696103726</v>
+        <v>18.31708654341063</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.226858984357744</v>
+        <v>9.106738874080536</v>
       </c>
       <c r="D18">
-        <v>4.548537511392537</v>
+        <v>6.358789990563659</v>
       </c>
       <c r="E18">
-        <v>7.706706381253517</v>
+        <v>12.05006391313371</v>
       </c>
       <c r="F18">
-        <v>24.87114300451011</v>
+        <v>31.24840191740053</v>
       </c>
       <c r="G18">
-        <v>34.26790523616766</v>
+        <v>40.88604833367329</v>
       </c>
       <c r="H18">
-        <v>10.70057777514458</v>
+        <v>17.1437723159271</v>
       </c>
       <c r="I18">
-        <v>19.81626795697441</v>
+        <v>28.05139345052368</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.83078987355776</v>
+        <v>17.36628367854222</v>
       </c>
       <c r="L18">
-        <v>5.283071278788889</v>
+        <v>9.443724079516192</v>
       </c>
       <c r="M18">
-        <v>18.83875540983718</v>
+        <v>18.26433920132479</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>7.206156540720701</v>
+        <v>9.103741387942668</v>
       </c>
       <c r="D19">
-        <v>4.548485539379882</v>
+        <v>6.358842684041602</v>
       </c>
       <c r="E19">
-        <v>7.698735478374945</v>
+        <v>12.05126953311469</v>
       </c>
       <c r="F19">
-        <v>24.81315293678665</v>
+        <v>31.2503882422066</v>
       </c>
       <c r="G19">
-        <v>34.17946477423519</v>
+        <v>40.88910776105757</v>
       </c>
       <c r="H19">
-        <v>10.69737725642145</v>
+        <v>17.14883320595947</v>
       </c>
       <c r="I19">
-        <v>19.78703261078018</v>
+        <v>28.05687642296612</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.7230230201784</v>
+        <v>17.32593449397492</v>
       </c>
       <c r="L19">
-        <v>5.286533756623454</v>
+        <v>9.445841899409315</v>
       </c>
       <c r="M19">
-        <v>18.75645935868891</v>
+        <v>18.24648751763115</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.299125211133586</v>
+        <v>9.117309804057577</v>
       </c>
       <c r="D20">
-        <v>4.548796720616648</v>
+        <v>6.35863148886662</v>
       </c>
       <c r="E20">
-        <v>7.734951000626985</v>
+        <v>12.0459769894089</v>
       </c>
       <c r="F20">
-        <v>25.07620142740539</v>
+        <v>31.24219598705038</v>
       </c>
       <c r="G20">
-        <v>34.58103677270301</v>
+        <v>40.87652113139282</v>
       </c>
       <c r="H20">
-        <v>10.71292923308265</v>
+        <v>17.12633571641759</v>
       </c>
       <c r="I20">
-        <v>19.92061300084982</v>
+        <v>28.0327647298581</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.20493918786456</v>
+        <v>17.50687710565747</v>
       </c>
       <c r="L20">
-        <v>5.271154958428943</v>
+        <v>9.436388852314483</v>
       </c>
       <c r="M20">
-        <v>19.12451510148807</v>
+        <v>18.32685218348283</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.607941464272497</v>
+        <v>9.16426393914287</v>
       </c>
       <c r="D21">
-        <v>4.551249313381583</v>
+        <v>6.358373934089764</v>
       </c>
       <c r="E21">
-        <v>7.862775863896355</v>
+        <v>12.03052051510959</v>
       </c>
       <c r="F21">
-        <v>25.99674427756939</v>
+        <v>31.22776949576528</v>
       </c>
       <c r="G21">
-        <v>35.99325470129537</v>
+        <v>40.85498300520622</v>
       </c>
       <c r="H21">
-        <v>10.78612192459119</v>
+        <v>17.05560986460849</v>
       </c>
       <c r="I21">
-        <v>20.40551174711359</v>
+        <v>27.96162824488048</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.77134967561619</v>
+        <v>18.10323328871153</v>
       </c>
       <c r="L21">
-        <v>5.223145523513282</v>
+        <v>9.405980944189219</v>
       </c>
       <c r="M21">
-        <v>20.32158249489953</v>
+        <v>18.59719032133925</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.806985958020548</v>
+        <v>9.195940470798382</v>
       </c>
       <c r="D22">
-        <v>4.553972087953174</v>
+        <v>6.358540378868464</v>
       </c>
       <c r="E22">
-        <v>7.951019636538953</v>
+        <v>12.02215240582225</v>
       </c>
       <c r="F22">
-        <v>26.62604473999397</v>
+        <v>31.22814180490321</v>
       </c>
       <c r="G22">
-        <v>36.96360993810573</v>
+        <v>40.85646171851532</v>
       </c>
       <c r="H22">
-        <v>10.85057483063298</v>
+        <v>17.01302719434299</v>
       </c>
       <c r="I22">
-        <v>20.75023182764842</v>
+        <v>27.92253802185873</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.75647020822591</v>
+        <v>18.4837755375209</v>
       </c>
       <c r="L22">
-        <v>5.194643520207574</v>
+        <v>9.387114761090071</v>
       </c>
       <c r="M22">
-        <v>21.07502884735972</v>
+        <v>18.77386961421879</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.70101461248237</v>
+        <v>9.178945480157431</v>
       </c>
       <c r="D23">
-        <v>4.552411540064661</v>
+        <v>6.358421049172745</v>
       </c>
       <c r="E23">
-        <v>7.903483862667391</v>
+        <v>12.02646000032778</v>
       </c>
       <c r="F23">
-        <v>26.28762218633739</v>
+        <v>31.22704412001354</v>
       </c>
       <c r="G23">
-        <v>36.44134576498546</v>
+        <v>40.85424402188038</v>
       </c>
       <c r="H23">
-        <v>10.81458932846982</v>
+        <v>17.03542017576172</v>
       </c>
       <c r="I23">
-        <v>20.56364550390884</v>
+        <v>27.94272140341725</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.23417937846838</v>
+        <v>18.28155081799085</v>
       </c>
       <c r="L23">
-        <v>5.209582614324259</v>
+        <v>9.397091926139332</v>
       </c>
       <c r="M23">
-        <v>20.67550716398273</v>
+        <v>18.67958827867737</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.294032732335981</v>
+        <v>9.116559479992011</v>
       </c>
       <c r="D24">
-        <v>4.548774507678444</v>
+        <v>6.358641380654236</v>
       </c>
       <c r="E24">
-        <v>7.732939400596325</v>
+        <v>12.04625888202913</v>
       </c>
       <c r="F24">
-        <v>25.06161853696531</v>
+        <v>31.24259669898467</v>
       </c>
       <c r="G24">
-        <v>34.55874843234476</v>
+        <v>40.87713450990616</v>
       </c>
       <c r="H24">
-        <v>10.71199897156845</v>
+        <v>17.12755291994723</v>
       </c>
       <c r="I24">
-        <v>19.91314401381825</v>
+        <v>28.0340517853085</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.17867486809235</v>
+        <v>17.49698264251195</v>
       </c>
       <c r="L24">
-        <v>5.271986067152933</v>
+        <v>9.436902874971445</v>
       </c>
       <c r="M24">
-        <v>19.10445341937265</v>
+        <v>18.32243709589703</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.844116389607631</v>
+        <v>9.053697514982726</v>
       </c>
       <c r="D25">
-        <v>4.54921982919844</v>
+        <v>6.360330189086931</v>
       </c>
       <c r="E25">
-        <v>7.568388111848526</v>
+        <v>12.0750559924718</v>
       </c>
       <c r="F25">
-        <v>23.85615746742065</v>
+        <v>31.30118059918249</v>
       </c>
       <c r="G25">
-        <v>32.72869564438783</v>
+        <v>40.96799184336101</v>
       </c>
       <c r="H25">
-        <v>10.66616651840402</v>
+        <v>17.24245658822897</v>
       </c>
       <c r="I25">
-        <v>19.3248422846219</v>
+        <v>28.16407015009917</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.79123207970902</v>
+        <v>16.61503853002941</v>
       </c>
       <c r="L25">
-        <v>5.350730231154588</v>
+        <v>9.484178045465445</v>
       </c>
       <c r="M25">
-        <v>17.28211569795476</v>
+        <v>17.93876803462964</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.011401415084759</v>
+        <v>6.504968369757408</v>
       </c>
       <c r="D2">
-        <v>6.36283652711164</v>
+        <v>4.552892727133944</v>
       </c>
       <c r="E2">
-        <v>12.10265317743298</v>
+        <v>7.463042721814945</v>
       </c>
       <c r="F2">
-        <v>31.37987966924902</v>
+        <v>23.06690063799649</v>
       </c>
       <c r="G2">
-        <v>41.09093900627082</v>
+        <v>31.54983844689437</v>
       </c>
       <c r="H2">
-        <v>17.34030167517576</v>
+        <v>10.6810725406484</v>
       </c>
       <c r="I2">
-        <v>28.2865733793764</v>
+        <v>18.98185792095063</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.9397738775668</v>
+        <v>20.88220687874672</v>
       </c>
       <c r="L2">
-        <v>9.522728301295974</v>
+        <v>5.417668911200421</v>
       </c>
       <c r="M2">
-        <v>17.65933568960175</v>
+        <v>15.99655164519075</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.985308260655922</v>
+        <v>6.271262451878797</v>
       </c>
       <c r="D3">
-        <v>6.365330603851305</v>
+        <v>4.557299398478185</v>
       </c>
       <c r="E3">
-        <v>12.12534011658075</v>
+        <v>7.401065812314714</v>
       </c>
       <c r="F3">
-        <v>31.45515730929046</v>
+        <v>22.59185744515131</v>
       </c>
       <c r="G3">
-        <v>41.20870801798418</v>
+        <v>30.85320400188148</v>
       </c>
       <c r="H3">
-        <v>17.41481715928546</v>
+        <v>10.71804123632092</v>
       </c>
       <c r="I3">
-        <v>28.38611856401548</v>
+        <v>18.80156053151892</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.46882273521691</v>
+        <v>19.49203241102088</v>
       </c>
       <c r="L3">
-        <v>9.551196242636509</v>
+        <v>5.468247698274579</v>
       </c>
       <c r="M3">
-        <v>17.47274325961215</v>
+        <v>15.11794154208235</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.970581150613253</v>
+        <v>6.126297738381844</v>
       </c>
       <c r="D4">
-        <v>6.367257055817283</v>
+        <v>4.560904046777249</v>
       </c>
       <c r="E4">
-        <v>12.14123325594021</v>
+        <v>7.367501672887561</v>
       </c>
       <c r="F4">
-        <v>31.51210915043865</v>
+        <v>22.32900765090424</v>
       </c>
       <c r="G4">
-        <v>41.29781531524849</v>
+        <v>30.47451348794793</v>
       </c>
       <c r="H4">
-        <v>17.46459853887502</v>
+        <v>10.75286998959967</v>
       </c>
       <c r="I4">
-        <v>28.45532809354622</v>
+        <v>18.71507317577325</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.17416551669826</v>
+        <v>18.59028291938262</v>
       </c>
       <c r="L4">
-        <v>9.569833560874054</v>
+        <v>5.50176559360958</v>
       </c>
       <c r="M4">
-        <v>17.35983836787511</v>
+        <v>14.5582569157497</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.964908981736908</v>
+        <v>6.066929244364454</v>
       </c>
       <c r="D5">
-        <v>6.368141874688033</v>
+        <v>4.562592921339035</v>
       </c>
       <c r="E5">
-        <v>12.14820322794811</v>
+        <v>7.354929376089343</v>
       </c>
       <c r="F5">
-        <v>31.5380012966001</v>
+        <v>22.22901532502635</v>
       </c>
       <c r="G5">
-        <v>41.33832020622656</v>
+        <v>30.33226025587683</v>
       </c>
       <c r="H5">
-        <v>17.48589506502505</v>
+        <v>10.76995074418626</v>
       </c>
       <c r="I5">
-        <v>28.48555596711674</v>
+        <v>18.68568033541615</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.05288617286968</v>
+        <v>18.21061674847323</v>
       </c>
       <c r="L5">
-        <v>9.577719943569036</v>
+        <v>5.516028627966238</v>
       </c>
       <c r="M5">
-        <v>17.31429106895969</v>
+        <v>14.32529205463019</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.963987114137279</v>
+        <v>6.057055724992058</v>
       </c>
       <c r="D6">
-        <v>6.368294836885053</v>
+        <v>4.562886478154968</v>
       </c>
       <c r="E6">
-        <v>12.14939037636605</v>
+        <v>7.352907800845871</v>
       </c>
       <c r="F6">
-        <v>31.54246231292979</v>
+        <v>22.21283742832517</v>
       </c>
       <c r="G6">
-        <v>41.34529831586293</v>
+        <v>30.3093589383902</v>
       </c>
       <c r="H6">
-        <v>17.48949226898883</v>
+        <v>10.77295674735474</v>
       </c>
       <c r="I6">
-        <v>28.49069726978021</v>
+        <v>18.68114587142098</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.03268050685307</v>
+        <v>18.14683465412653</v>
       </c>
       <c r="L6">
-        <v>9.579047089554441</v>
+        <v>5.518433073879836</v>
       </c>
       <c r="M6">
-        <v>17.3067571707639</v>
+        <v>14.28631973434505</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.970503315807616</v>
+        <v>6.125498160488862</v>
       </c>
       <c r="D7">
-        <v>6.367268584264428</v>
+        <v>4.560925940463532</v>
       </c>
       <c r="E7">
-        <v>12.14132525813534</v>
+        <v>7.367327675082494</v>
       </c>
       <c r="F7">
-        <v>31.51244749462066</v>
+        <v>22.32763047797229</v>
       </c>
       <c r="G7">
-        <v>41.29834464364377</v>
+        <v>30.47254655464075</v>
       </c>
       <c r="H7">
-        <v>17.46488166473758</v>
+        <v>10.75308886531575</v>
       </c>
       <c r="I7">
-        <v>28.455727573219</v>
+        <v>18.71465340560805</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.17253453408292</v>
+        <v>18.58521209124683</v>
       </c>
       <c r="L7">
-        <v>9.569938738537484</v>
+        <v>5.501955522249561</v>
       </c>
       <c r="M7">
-        <v>17.35922217144488</v>
+        <v>14.55513457419856</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.002138253462254</v>
+        <v>6.424733873724366</v>
       </c>
       <c r="D8">
-        <v>6.363614741159207</v>
+        <v>4.554221666257007</v>
       </c>
       <c r="E8">
-        <v>12.110067998358</v>
+        <v>7.440727304824825</v>
       </c>
       <c r="F8">
-        <v>31.40359974454744</v>
+        <v>22.89705439357425</v>
       </c>
       <c r="G8">
-        <v>41.12804181860746</v>
+        <v>31.29931829949396</v>
       </c>
       <c r="H8">
-        <v>17.36515679989189</v>
+        <v>10.69120269857237</v>
       </c>
       <c r="I8">
-        <v>28.31921222721141</v>
+        <v>18.91452668081209</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.77863182410469</v>
+        <v>20.41282198136294</v>
       </c>
       <c r="L8">
-        <v>9.532303946687062</v>
+        <v>5.434588033728168</v>
       </c>
       <c r="M8">
-        <v>17.59467997990779</v>
+        <v>15.69790497761318</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.074264601079033</v>
+        <v>6.997014090572454</v>
       </c>
       <c r="D9">
-        <v>6.359566147255791</v>
+        <v>4.548525187789121</v>
       </c>
       <c r="E9">
-        <v>12.06436192804085</v>
+        <v>7.621302652323656</v>
       </c>
       <c r="F9">
-        <v>31.27589300158283</v>
+        <v>24.24678415274054</v>
       </c>
       <c r="G9">
-        <v>40.92861707449882</v>
+        <v>33.31866433022891</v>
       </c>
       <c r="H9">
-        <v>17.20168674489323</v>
+        <v>10.67357701244097</v>
       </c>
       <c r="I9">
-        <v>28.11609211478219</v>
+        <v>19.50849140719417</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.91649066430951</v>
+        <v>23.61862747255608</v>
       </c>
       <c r="L9">
-        <v>9.467673124965261</v>
+        <v>5.322759177639609</v>
       </c>
       <c r="M9">
-        <v>18.06764754939774</v>
+        <v>17.91338651583412</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.133152522039612</v>
+        <v>7.405411833692731</v>
       </c>
       <c r="D10">
-        <v>6.358468064446734</v>
+        <v>4.549396068023799</v>
       </c>
       <c r="E10">
-        <v>12.04029929205396</v>
+        <v>7.777660154664829</v>
       </c>
       <c r="F10">
-        <v>31.23506958936909</v>
+        <v>25.38507608859694</v>
       </c>
       <c r="G10">
-        <v>40.86567960778043</v>
+        <v>35.05377852639653</v>
       </c>
       <c r="H10">
-        <v>17.10131916079234</v>
+        <v>10.73440560752391</v>
       </c>
       <c r="I10">
-        <v>28.00676901218935</v>
+        <v>20.08046068188489</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.71294061239163</v>
+        <v>25.74974803296216</v>
       </c>
       <c r="L10">
-        <v>9.425756976498194</v>
+        <v>5.254103519120012</v>
       </c>
       <c r="M10">
-        <v>18.4193314602773</v>
+        <v>19.54073260976367</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.161163107602661</v>
+        <v>7.588090335540216</v>
       </c>
       <c r="D11">
-        <v>6.35837106706431</v>
+        <v>4.551026673157265</v>
       </c>
       <c r="E11">
-        <v>12.03142103218811</v>
+        <v>7.854221486770966</v>
       </c>
       <c r="F11">
-        <v>31.22813380375931</v>
+        <v>25.93548810123778</v>
       </c>
       <c r="G11">
-        <v>40.85547373623983</v>
+        <v>35.89899269925732</v>
       </c>
       <c r="H11">
-        <v>17.05998094421797</v>
+        <v>10.78043168724347</v>
       </c>
       <c r="I11">
-        <v>27.96580722609561</v>
+        <v>20.37248884124237</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.06511563762236</v>
+        <v>26.67211446260095</v>
       </c>
       <c r="L11">
-        <v>9.407892606863792</v>
+        <v>5.226092066331735</v>
       </c>
       <c r="M11">
-        <v>18.5796678951841</v>
+        <v>20.24571120449788</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.171940301827609</v>
+        <v>7.656790266096117</v>
       </c>
       <c r="D12">
-        <v>6.358391803433554</v>
+        <v>4.55183498436311</v>
       </c>
       <c r="E12">
-        <v>12.02835645215267</v>
+        <v>7.884018390959081</v>
       </c>
       <c r="F12">
-        <v>31.22718840326759</v>
+        <v>26.14865884713365</v>
       </c>
       <c r="G12">
-        <v>40.8542766157456</v>
+        <v>36.22717853848955</v>
       </c>
       <c r="H12">
-        <v>17.04495142405447</v>
+        <v>10.80069578847527</v>
       </c>
       <c r="I12">
-        <v>27.95156513776574</v>
+        <v>20.487831087714</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.19690416880603</v>
+        <v>27.01475694948319</v>
       </c>
       <c r="L12">
-        <v>9.401300565313168</v>
+        <v>5.215975396710937</v>
       </c>
       <c r="M12">
-        <v>18.64038711762499</v>
+        <v>20.50770231007932</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.169611761586554</v>
+        <v>7.6420160817989</v>
       </c>
       <c r="D13">
-        <v>6.358384788201281</v>
+        <v>4.551652181032314</v>
       </c>
       <c r="E13">
-        <v>12.02900323617007</v>
+        <v>7.877564914450559</v>
       </c>
       <c r="F13">
-        <v>31.22731713888725</v>
+        <v>26.10253684975492</v>
       </c>
       <c r="G13">
-        <v>40.85441553803854</v>
+        <v>36.15613518707456</v>
       </c>
       <c r="H13">
-        <v>17.04816048012433</v>
+        <v>10.79620232109996</v>
       </c>
       <c r="I13">
-        <v>27.954575851595</v>
+        <v>20.46277568048573</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.16859279725939</v>
+        <v>26.94125572188067</v>
       </c>
       <c r="L13">
-        <v>9.402712597697795</v>
+        <v>5.218131909207703</v>
       </c>
       <c r="M13">
-        <v>18.62731074972242</v>
+        <v>20.45149701549215</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.162046375517773</v>
+        <v>7.59375200979846</v>
       </c>
       <c r="D14">
-        <v>6.358371623702329</v>
+        <v>4.55108926600336</v>
       </c>
       <c r="E14">
-        <v>12.03116294646146</v>
+        <v>7.856656628128328</v>
       </c>
       <c r="F14">
-        <v>31.22802229508233</v>
+        <v>25.95293040985308</v>
       </c>
       <c r="G14">
-        <v>40.85532169241684</v>
+        <v>35.92582946171775</v>
       </c>
       <c r="H14">
-        <v>17.05873192492377</v>
+        <v>10.78204087932064</v>
       </c>
       <c r="I14">
-        <v>27.96461003833866</v>
+        <v>20.38188176188563</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.07599009268956</v>
+        <v>26.70043608902177</v>
       </c>
       <c r="L14">
-        <v>9.407346813742103</v>
+        <v>5.225249759697544</v>
       </c>
       <c r="M14">
-        <v>18.58466350600629</v>
+        <v>20.2673643044672</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.157434353726455</v>
+        <v>7.564126082082981</v>
       </c>
       <c r="D15">
-        <v>6.358371031697477</v>
+        <v>4.550769743054404</v>
       </c>
       <c r="E15">
-        <v>12.03252456519011</v>
+        <v>7.843955222847811</v>
       </c>
       <c r="F15">
-        <v>31.22867335113222</v>
+        <v>25.86191142710129</v>
       </c>
       <c r="G15">
-        <v>40.8562246268642</v>
+        <v>35.7858208668162</v>
       </c>
       <c r="H15">
-        <v>17.06528864634615</v>
+        <v>10.77374164095803</v>
       </c>
       <c r="I15">
-        <v>27.97092179476007</v>
+        <v>20.33295669581306</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>18.01906025820637</v>
+        <v>26.5520668502732</v>
       </c>
       <c r="L15">
-        <v>9.41020790212942</v>
+        <v>5.229674416223513</v>
       </c>
       <c r="M15">
-        <v>18.55853986737793</v>
+        <v>20.15393395824315</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.131346088000761</v>
+        <v>7.393408128073712</v>
       </c>
       <c r="D16">
-        <v>6.358482467719517</v>
+        <v>4.549315443136369</v>
       </c>
       <c r="E16">
-        <v>12.04092112609609</v>
+        <v>7.772768007815245</v>
       </c>
       <c r="F16">
-        <v>31.23575770021296</v>
+        <v>25.349765747786</v>
       </c>
       <c r="G16">
-        <v>40.86671896236524</v>
+        <v>34.99967358443921</v>
       </c>
       <c r="H16">
-        <v>17.10410790604475</v>
+        <v>10.73178370419344</v>
       </c>
       <c r="I16">
-        <v>28.00962314193176</v>
+        <v>20.06203207735043</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.68971109848711</v>
+        <v>25.68853283584525</v>
       </c>
       <c r="L16">
-        <v>9.426948650605596</v>
+        <v>5.2560012258794</v>
       </c>
       <c r="M16">
-        <v>18.40885613254892</v>
+        <v>19.4939591644743</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.115650929954011</v>
+        <v>7.287858969053115</v>
       </c>
       <c r="D17">
-        <v>6.358653630179689</v>
+        <v>4.548748378938894</v>
       </c>
       <c r="E17">
-        <v>12.04660185897152</v>
+        <v>7.730504976385842</v>
       </c>
       <c r="F17">
-        <v>31.24308987670913</v>
+        <v>25.04396608994413</v>
       </c>
       <c r="G17">
-        <v>40.87788982312599</v>
+        <v>34.53177255836928</v>
       </c>
       <c r="H17">
-        <v>17.12903089319623</v>
+        <v>10.7108833383931</v>
       </c>
       <c r="I17">
-        <v>28.03561729752167</v>
+        <v>19.90411261034969</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>17.48498466534398</v>
+        <v>25.146813547958</v>
       </c>
       <c r="L17">
-        <v>9.437526618656666</v>
+        <v>5.272995389570099</v>
       </c>
       <c r="M17">
-        <v>18.31708654341063</v>
+        <v>19.08011696103723</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.106738874080536</v>
+        <v>7.226858984357709</v>
       </c>
       <c r="D18">
-        <v>6.358789990563659</v>
+        <v>4.548537511392702</v>
       </c>
       <c r="E18">
-        <v>12.05006391313371</v>
+        <v>7.706706381253595</v>
       </c>
       <c r="F18">
-        <v>31.24840191740053</v>
+        <v>24.87114300451012</v>
       </c>
       <c r="G18">
-        <v>40.88604833367329</v>
+        <v>34.26790523616771</v>
       </c>
       <c r="H18">
-        <v>17.1437723159271</v>
+        <v>10.7005777751446</v>
       </c>
       <c r="I18">
-        <v>28.05139345052368</v>
+        <v>19.81626795697446</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>17.36628367854222</v>
+        <v>24.83078987355773</v>
       </c>
       <c r="L18">
-        <v>9.443724079516192</v>
+        <v>5.28307127878894</v>
       </c>
       <c r="M18">
-        <v>18.26433920132479</v>
+        <v>18.83875540983714</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.103741387942668</v>
+        <v>7.206156540720582</v>
       </c>
       <c r="D19">
-        <v>6.358842684041602</v>
+        <v>4.548485539379651</v>
       </c>
       <c r="E19">
-        <v>12.05126953311469</v>
+        <v>7.698735478374857</v>
       </c>
       <c r="F19">
-        <v>31.2503882422066</v>
+        <v>24.8131529367866</v>
       </c>
       <c r="G19">
-        <v>40.88910776105757</v>
+        <v>34.17946477423508</v>
       </c>
       <c r="H19">
-        <v>17.14883320595947</v>
+        <v>10.69737725642134</v>
       </c>
       <c r="I19">
-        <v>28.05687642296612</v>
+        <v>19.78703261078008</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>17.32593449397492</v>
+        <v>24.72302302017842</v>
       </c>
       <c r="L19">
-        <v>9.445841899409315</v>
+        <v>5.286533756623483</v>
       </c>
       <c r="M19">
-        <v>18.24648751763115</v>
+        <v>18.75645935868893</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.117309804057577</v>
+        <v>7.299125211133617</v>
       </c>
       <c r="D20">
-        <v>6.35863148886662</v>
+        <v>4.548796720616759</v>
       </c>
       <c r="E20">
-        <v>12.0459769894089</v>
+        <v>7.734951000626991</v>
       </c>
       <c r="F20">
-        <v>31.24219598705038</v>
+        <v>25.07620142740539</v>
       </c>
       <c r="G20">
-        <v>40.87652113139282</v>
+        <v>34.58103677270304</v>
       </c>
       <c r="H20">
-        <v>17.12633571641759</v>
+        <v>10.71292923308273</v>
       </c>
       <c r="I20">
-        <v>28.0327647298581</v>
+        <v>19.92061300084985</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.50687710565747</v>
+        <v>25.20493918786456</v>
       </c>
       <c r="L20">
-        <v>9.436388852314483</v>
+        <v>5.27115495842897</v>
       </c>
       <c r="M20">
-        <v>18.32685218348283</v>
+        <v>19.12451510148806</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.16426393914287</v>
+        <v>7.607941464272355</v>
       </c>
       <c r="D21">
-        <v>6.358373934089764</v>
+        <v>4.551249313381649</v>
       </c>
       <c r="E21">
-        <v>12.03052051510959</v>
+        <v>7.862775863896278</v>
       </c>
       <c r="F21">
-        <v>31.22776949576528</v>
+        <v>25.99674427756934</v>
       </c>
       <c r="G21">
-        <v>40.85498300520622</v>
+        <v>35.99325470129532</v>
       </c>
       <c r="H21">
-        <v>17.05560986460849</v>
+        <v>10.78612192459117</v>
       </c>
       <c r="I21">
-        <v>27.96162824488048</v>
+        <v>20.40551174711352</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.10323328871153</v>
+        <v>26.77134967561623</v>
       </c>
       <c r="L21">
-        <v>9.405980944189219</v>
+        <v>5.223145523513337</v>
       </c>
       <c r="M21">
-        <v>18.59719032133925</v>
+        <v>20.32158249489957</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.195940470798382</v>
+        <v>7.806985958020546</v>
       </c>
       <c r="D22">
-        <v>6.358540378868464</v>
+        <v>4.553972087953049</v>
       </c>
       <c r="E22">
-        <v>12.02215240582225</v>
+        <v>7.951019636538982</v>
       </c>
       <c r="F22">
-        <v>31.22814180490321</v>
+        <v>26.62604473999398</v>
       </c>
       <c r="G22">
-        <v>40.85646171851532</v>
+        <v>36.96360993810573</v>
       </c>
       <c r="H22">
-        <v>17.01302719434299</v>
+        <v>10.85057483063298</v>
       </c>
       <c r="I22">
-        <v>27.92253802185873</v>
+        <v>20.75023182764843</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.4837755375209</v>
+        <v>27.7564702082259</v>
       </c>
       <c r="L22">
-        <v>9.387114761090071</v>
+        <v>5.194643520207625</v>
       </c>
       <c r="M22">
-        <v>18.77386961421879</v>
+        <v>21.0750288473597</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.178945480157431</v>
+        <v>7.701014612482362</v>
       </c>
       <c r="D23">
-        <v>6.358421049172745</v>
+        <v>4.552411540064565</v>
       </c>
       <c r="E23">
-        <v>12.02646000032778</v>
+        <v>7.90348386266743</v>
       </c>
       <c r="F23">
-        <v>31.22704412001354</v>
+        <v>26.28762218633742</v>
       </c>
       <c r="G23">
-        <v>40.85424402188038</v>
+        <v>36.44134576498539</v>
       </c>
       <c r="H23">
-        <v>17.03542017576172</v>
+        <v>10.81458932846986</v>
       </c>
       <c r="I23">
-        <v>27.94272140341725</v>
+        <v>20.56364550390888</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.28155081799085</v>
+        <v>27.23417937846831</v>
       </c>
       <c r="L23">
-        <v>9.397091926139332</v>
+        <v>5.209582614324319</v>
       </c>
       <c r="M23">
-        <v>18.67958827867737</v>
+        <v>20.67550716398268</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.116559479992011</v>
+        <v>7.294032732336024</v>
       </c>
       <c r="D24">
-        <v>6.358641380654236</v>
+        <v>4.548774507678396</v>
       </c>
       <c r="E24">
-        <v>12.04625888202913</v>
+        <v>7.73293940059628</v>
       </c>
       <c r="F24">
-        <v>31.24259669898467</v>
+        <v>25.0616185369653</v>
       </c>
       <c r="G24">
-        <v>40.87713450990616</v>
+        <v>34.55874843234474</v>
       </c>
       <c r="H24">
-        <v>17.12755291994723</v>
+        <v>10.71199897156843</v>
       </c>
       <c r="I24">
-        <v>28.0340517853085</v>
+        <v>19.91314401381826</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.49698264251195</v>
+        <v>25.17867486809233</v>
       </c>
       <c r="L24">
-        <v>9.436902874971445</v>
+        <v>5.27198606715291</v>
       </c>
       <c r="M24">
-        <v>18.32243709589703</v>
+        <v>19.10445341937264</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.053697514982726</v>
+        <v>6.84411638960766</v>
       </c>
       <c r="D25">
-        <v>6.360330189086931</v>
+        <v>4.549219829198325</v>
       </c>
       <c r="E25">
-        <v>12.0750559924718</v>
+        <v>7.568388111848617</v>
       </c>
       <c r="F25">
-        <v>31.30118059918249</v>
+        <v>23.85615746742071</v>
       </c>
       <c r="G25">
-        <v>40.96799184336101</v>
+        <v>32.72869564438789</v>
       </c>
       <c r="H25">
-        <v>17.24245658822897</v>
+        <v>10.66616651840405</v>
       </c>
       <c r="I25">
-        <v>28.16407015009917</v>
+        <v>19.32484228462194</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.61503853002941</v>
+        <v>22.79123207970898</v>
       </c>
       <c r="L25">
-        <v>9.484178045465445</v>
+        <v>5.350730231154702</v>
       </c>
       <c r="M25">
-        <v>17.93876803462964</v>
+        <v>17.28211569795471</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,995 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>6.504968369757408</v>
+        <v>4.519722647424145</v>
       </c>
       <c r="D2">
-        <v>4.552892727133944</v>
+        <v>7.307807560737585</v>
       </c>
       <c r="E2">
-        <v>7.463042721814945</v>
+        <v>12.66081514364213</v>
       </c>
       <c r="F2">
-        <v>23.06690063799649</v>
+        <v>30.3168806469533</v>
       </c>
       <c r="G2">
-        <v>31.54983844689437</v>
+        <v>38.54121147532179</v>
       </c>
       <c r="H2">
-        <v>10.6810725406484</v>
+        <v>2.926668092492482</v>
       </c>
       <c r="I2">
-        <v>18.98185792095063</v>
+        <v>4.538174935345003</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>11.38123682252856</v>
       </c>
       <c r="K2">
-        <v>20.88220687874672</v>
+        <v>20.44228730395639</v>
       </c>
       <c r="L2">
-        <v>5.417668911200421</v>
-      </c>
-      <c r="M2">
-        <v>15.99655164519075</v>
+        <v>8.021399430520463</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="Q2">
+        <v>21.15775880028374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
-        <v>6.271262451878797</v>
+        <v>4.347427534115156</v>
       </c>
       <c r="D3">
-        <v>4.557299398478185</v>
+        <v>7.104906290544727</v>
       </c>
       <c r="E3">
-        <v>7.401065812314714</v>
+        <v>12.17962886786712</v>
       </c>
       <c r="F3">
-        <v>22.59185744515131</v>
+        <v>28.84961989901604</v>
       </c>
       <c r="G3">
-        <v>30.85320400188148</v>
+        <v>36.32412618678375</v>
       </c>
       <c r="H3">
-        <v>10.71804123632092</v>
+        <v>2.673051119337126</v>
       </c>
       <c r="I3">
-        <v>18.80156053151892</v>
+        <v>4.330131604405999</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.99897374131941</v>
       </c>
       <c r="K3">
-        <v>19.49203241102088</v>
+        <v>19.5304374935322</v>
       </c>
       <c r="L3">
-        <v>5.468247698274579</v>
-      </c>
-      <c r="M3">
-        <v>15.11794154208235</v>
+        <v>7.789278927279267</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="Q3">
+        <v>20.19033832788251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
-        <v>6.126297738381844</v>
+        <v>4.234654983877919</v>
       </c>
       <c r="D4">
-        <v>4.560904046777249</v>
+        <v>6.978580858296106</v>
       </c>
       <c r="E4">
-        <v>7.367501672887561</v>
+        <v>11.87416265665416</v>
       </c>
       <c r="F4">
-        <v>22.32900765090424</v>
+        <v>27.91393401379201</v>
       </c>
       <c r="G4">
-        <v>30.47451348794793</v>
+        <v>34.89583133622002</v>
       </c>
       <c r="H4">
-        <v>10.75286998959967</v>
+        <v>2.511482359025803</v>
       </c>
       <c r="I4">
-        <v>18.71507317577325</v>
+        <v>4.197773737205936</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.759011390276</v>
       </c>
       <c r="K4">
-        <v>18.59028291938262</v>
+        <v>18.94862209637475</v>
       </c>
       <c r="L4">
-        <v>5.50176559360958</v>
-      </c>
-      <c r="M4">
-        <v>14.5582569157497</v>
+        <v>7.642285285474166</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4">
+        <v>19.57491749869023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>6.066929244364454</v>
+        <v>4.178922072209913</v>
       </c>
       <c r="D5">
-        <v>4.562592921339035</v>
+        <v>6.928055576830142</v>
       </c>
       <c r="E5">
-        <v>7.354929376089343</v>
+        <v>11.74766461927601</v>
       </c>
       <c r="F5">
-        <v>22.22901532502635</v>
+        <v>27.51526255890969</v>
       </c>
       <c r="G5">
-        <v>30.33226025587683</v>
+        <v>34.28071907347155</v>
       </c>
       <c r="H5">
-        <v>10.76995074418626</v>
+        <v>2.443772200533606</v>
       </c>
       <c r="I5">
-        <v>18.68568033541615</v>
+        <v>4.142310582547042</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.65675040495502</v>
       </c>
       <c r="K5">
-        <v>18.21061674847323</v>
+        <v>18.69535250262084</v>
       </c>
       <c r="L5">
-        <v>5.516028627966238</v>
-      </c>
-      <c r="M5">
-        <v>14.32529205463019</v>
+        <v>7.580935494739313</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5">
+        <v>19.31133451773852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
-        <v>6.057055724992058</v>
+        <v>4.1597961889571</v>
       </c>
       <c r="D6">
-        <v>4.562886478154968</v>
+        <v>6.921292107665815</v>
       </c>
       <c r="E6">
-        <v>7.352907800845871</v>
+        <v>11.7270144950083</v>
       </c>
       <c r="F6">
-        <v>22.21283742832517</v>
+        <v>27.43752332587152</v>
       </c>
       <c r="G6">
-        <v>30.3093589383902</v>
+        <v>34.15726942183645</v>
       </c>
       <c r="H6">
-        <v>10.77295674735474</v>
+        <v>2.431978357372521</v>
       </c>
       <c r="I6">
-        <v>18.68114587142098</v>
+        <v>4.132742068922538</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.63569124368269</v>
       </c>
       <c r="K6">
-        <v>18.14683465412653</v>
+        <v>18.63961764840184</v>
       </c>
       <c r="L6">
-        <v>5.518433073879836</v>
-      </c>
-      <c r="M6">
-        <v>14.28631973434505</v>
+        <v>7.570242991563982</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6">
+        <v>19.25785039557327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>6.125498160488862</v>
+        <v>4.207451724529164</v>
       </c>
       <c r="D7">
-        <v>4.560925940463532</v>
+        <v>6.982364745008475</v>
       </c>
       <c r="E7">
-        <v>7.367327675082494</v>
+        <v>11.87381551851365</v>
       </c>
       <c r="F7">
-        <v>22.32763047797229</v>
+        <v>27.87890949132445</v>
       </c>
       <c r="G7">
-        <v>30.47254655464075</v>
+        <v>34.8331994945081</v>
       </c>
       <c r="H7">
-        <v>10.75308886531575</v>
+        <v>2.50933197440181</v>
       </c>
       <c r="I7">
-        <v>18.71465340560805</v>
+        <v>4.196052906946908</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.74680055311859</v>
       </c>
       <c r="K7">
-        <v>18.58521209124683</v>
+        <v>18.90924514918449</v>
       </c>
       <c r="L7">
-        <v>5.501955522249561</v>
-      </c>
-      <c r="M7">
-        <v>14.55513457419856</v>
+        <v>7.640274082110153</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7">
+        <v>19.54605469707462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
-        <v>6.424733873724366</v>
+        <v>4.428101654602875</v>
       </c>
       <c r="D8">
-        <v>4.554221666257007</v>
+        <v>7.243968043214326</v>
       </c>
       <c r="E8">
-        <v>7.440727304824825</v>
+        <v>12.4987649327478</v>
       </c>
       <c r="F8">
-        <v>22.89705439357425</v>
+        <v>29.78132784740773</v>
       </c>
       <c r="G8">
-        <v>31.29931829949396</v>
+        <v>37.72370846221661</v>
       </c>
       <c r="H8">
-        <v>10.69120269857237</v>
+        <v>2.838829115723138</v>
       </c>
       <c r="I8">
-        <v>18.91452668081209</v>
+        <v>4.465935365700917</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>11.23679384706914</v>
       </c>
       <c r="K8">
-        <v>20.41282198136294</v>
+        <v>20.08738559332376</v>
       </c>
       <c r="L8">
-        <v>5.434588033728168</v>
-      </c>
-      <c r="M8">
-        <v>15.69790497761318</v>
+        <v>7.940809688414589</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8">
+        <v>20.79703856493599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
-        <v>6.997014090572454</v>
+        <v>4.849870644588624</v>
       </c>
       <c r="D9">
-        <v>4.548525187789121</v>
+        <v>7.733633555445405</v>
       </c>
       <c r="E9">
-        <v>7.621302652323656</v>
+        <v>13.63900492401362</v>
       </c>
       <c r="F9">
-        <v>24.24678415274054</v>
+        <v>33.27043765949033</v>
       </c>
       <c r="G9">
-        <v>33.31866433022891</v>
+        <v>42.93557038666839</v>
       </c>
       <c r="H9">
-        <v>10.67357701244097</v>
+        <v>3.441772263829608</v>
       </c>
       <c r="I9">
-        <v>19.50849140719417</v>
+        <v>4.961657398805478</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>12.16955346287224</v>
       </c>
       <c r="K9">
-        <v>23.61862747255608</v>
+        <v>22.27358690696963</v>
       </c>
       <c r="L9">
-        <v>5.322759177639609</v>
-      </c>
-      <c r="M9">
-        <v>17.91338651583412</v>
+        <v>8.495290327956722</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="Q9">
+        <v>23.11169758124461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
-        <v>7.405411833692731</v>
+        <v>5.120854383397002</v>
       </c>
       <c r="D10">
-        <v>4.549396068023799</v>
+        <v>8.002280292140426</v>
       </c>
       <c r="E10">
-        <v>7.777660154664829</v>
+        <v>14.20998953413598</v>
       </c>
       <c r="F10">
-        <v>25.38507608859694</v>
+        <v>35.43954841570604</v>
       </c>
       <c r="G10">
-        <v>35.05377852639653</v>
+        <v>46.19750822928478</v>
       </c>
       <c r="H10">
-        <v>10.73440560752391</v>
+        <v>3.839301915377422</v>
       </c>
       <c r="I10">
-        <v>20.08046068188489</v>
+        <v>5.298031492654435</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>12.7725580324123</v>
       </c>
       <c r="K10">
-        <v>25.74974803296216</v>
+        <v>23.65941106110853</v>
       </c>
       <c r="L10">
-        <v>5.254103519120012</v>
-      </c>
-      <c r="M10">
-        <v>19.54073260976367</v>
+        <v>8.769931622041085</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10">
+        <v>24.58271440969753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
-        <v>7.588090335540216</v>
+        <v>5.266319076653445</v>
       </c>
       <c r="D11">
-        <v>4.551026673157265</v>
+        <v>7.440892411620055</v>
       </c>
       <c r="E11">
-        <v>7.854221486770966</v>
+        <v>12.68713148576006</v>
       </c>
       <c r="F11">
-        <v>25.93548810123778</v>
+        <v>34.71355580694237</v>
       </c>
       <c r="G11">
-        <v>35.89899269925732</v>
+        <v>45.81436970941593</v>
       </c>
       <c r="H11">
-        <v>10.78043168724347</v>
+        <v>4.358468455650964</v>
       </c>
       <c r="I11">
-        <v>20.37248884124237</v>
+        <v>5.387184768813309</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>12.64678901324938</v>
       </c>
       <c r="K11">
-        <v>26.67211446260095</v>
+        <v>23.5063882779299</v>
       </c>
       <c r="L11">
-        <v>5.226092066331735</v>
-      </c>
-      <c r="M11">
-        <v>20.24571120449788</v>
+        <v>8.005596398210756</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11">
+        <v>24.35157468785919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
-        <v>7.656790266096117</v>
+        <v>5.38177254768364</v>
       </c>
       <c r="D12">
-        <v>4.55183498436311</v>
+        <v>6.92266812454692</v>
       </c>
       <c r="E12">
-        <v>7.884018390959081</v>
+        <v>11.36959775988139</v>
       </c>
       <c r="F12">
-        <v>26.14865884713365</v>
+        <v>33.66865388575079</v>
       </c>
       <c r="G12">
-        <v>36.22717853848955</v>
+        <v>44.86930696410738</v>
       </c>
       <c r="H12">
-        <v>10.80069578847527</v>
+        <v>5.257902949592852</v>
       </c>
       <c r="I12">
-        <v>20.487831087714</v>
+        <v>5.396939287205146</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>12.42332821465099</v>
       </c>
       <c r="K12">
-        <v>27.01475694948319</v>
+        <v>23.12838413575774</v>
       </c>
       <c r="L12">
-        <v>5.215975396710937</v>
-      </c>
-      <c r="M12">
-        <v>20.50770231007932</v>
+        <v>7.380358654581514</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12">
+        <v>23.8732638977698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
-        <v>7.6420160817989</v>
+        <v>5.448221288232542</v>
       </c>
       <c r="D13">
-        <v>4.551652181032314</v>
+        <v>6.411995957816173</v>
       </c>
       <c r="E13">
-        <v>7.877564914450559</v>
+        <v>10.14955092305608</v>
       </c>
       <c r="F13">
-        <v>26.10253684975492</v>
+        <v>32.24884814361527</v>
       </c>
       <c r="G13">
-        <v>36.15613518707456</v>
+        <v>43.33811157862629</v>
       </c>
       <c r="H13">
-        <v>10.79620232109996</v>
+        <v>6.323709677876153</v>
       </c>
       <c r="I13">
-        <v>20.46277568048573</v>
+        <v>5.345683159069758</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>12.09173593703871</v>
       </c>
       <c r="K13">
-        <v>26.94125572188067</v>
+        <v>22.49826762930802</v>
       </c>
       <c r="L13">
-        <v>5.218131909207703</v>
-      </c>
-      <c r="M13">
-        <v>20.45149701549215</v>
+        <v>6.836789230722731</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13">
+        <v>23.13025899735384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
-        <v>7.59375200979846</v>
+        <v>5.46685215350136</v>
       </c>
       <c r="D14">
-        <v>4.55108926600336</v>
+        <v>6.066066251151184</v>
       </c>
       <c r="E14">
-        <v>7.856656628128328</v>
+        <v>9.38439621775508</v>
       </c>
       <c r="F14">
-        <v>25.95293040985308</v>
+        <v>31.06064214316277</v>
       </c>
       <c r="G14">
-        <v>35.92582946171775</v>
+        <v>41.96653714358236</v>
       </c>
       <c r="H14">
-        <v>10.78204087932064</v>
+        <v>7.136812813746407</v>
       </c>
       <c r="I14">
-        <v>20.38188176188563</v>
+        <v>5.282523994308752</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>11.80494773798122</v>
       </c>
       <c r="K14">
-        <v>26.70043608902177</v>
+        <v>21.9270076937186</v>
       </c>
       <c r="L14">
-        <v>5.225249759697544</v>
-      </c>
-      <c r="M14">
-        <v>20.2673643044672</v>
+        <v>6.519479156196155</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14">
+        <v>22.47530479195409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>7.564126082082981</v>
+        <v>5.44901040121971</v>
       </c>
       <c r="D15">
-        <v>4.550769743054404</v>
+        <v>5.982411488808818</v>
       </c>
       <c r="E15">
-        <v>7.843955222847811</v>
+        <v>9.208710425743368</v>
       </c>
       <c r="F15">
-        <v>25.86191142710129</v>
+        <v>30.68022821592263</v>
       </c>
       <c r="G15">
-        <v>35.7858208668162</v>
+        <v>41.48643440537171</v>
       </c>
       <c r="H15">
-        <v>10.77374164095803</v>
+        <v>7.321821972627399</v>
       </c>
       <c r="I15">
-        <v>20.33295669581306</v>
+        <v>5.253600839448454</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>11.70858773812203</v>
       </c>
       <c r="K15">
-        <v>26.5520668502732</v>
+        <v>21.72156868350751</v>
       </c>
       <c r="L15">
-        <v>5.229674416223513</v>
-      </c>
-      <c r="M15">
-        <v>20.15393395824315</v>
+        <v>6.449384127029098</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15">
+        <v>22.25030502518439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>7.393408128073712</v>
+        <v>5.311036311532185</v>
       </c>
       <c r="D16">
-        <v>4.549315443136369</v>
+        <v>5.961450904245223</v>
       </c>
       <c r="E16">
-        <v>7.772768007815245</v>
+        <v>9.167891126020752</v>
       </c>
       <c r="F16">
-        <v>25.349765747786</v>
+        <v>29.95776578792886</v>
       </c>
       <c r="G16">
-        <v>34.99967358443921</v>
+        <v>40.30306048592773</v>
       </c>
       <c r="H16">
-        <v>10.73178370419344</v>
+        <v>7.034799250220698</v>
       </c>
       <c r="I16">
-        <v>20.06203207735043</v>
+        <v>5.12181832241877</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>11.50119618464351</v>
       </c>
       <c r="K16">
-        <v>25.68853283584525</v>
+        <v>21.21499826530983</v>
       </c>
       <c r="L16">
-        <v>5.2560012258794</v>
-      </c>
-      <c r="M16">
-        <v>19.4939591644743</v>
+        <v>6.427228663130738</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="Q16">
+        <v>21.72815798950137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>7.287858969053115</v>
+        <v>5.191371775544627</v>
       </c>
       <c r="D17">
-        <v>4.548748378938894</v>
+        <v>6.127290081627533</v>
       </c>
       <c r="E17">
-        <v>7.730504976385842</v>
+        <v>9.525736606317777</v>
       </c>
       <c r="F17">
-        <v>25.04396608994413</v>
+        <v>30.05575920160079</v>
       </c>
       <c r="G17">
-        <v>34.53177255836928</v>
+        <v>40.14557771807999</v>
       </c>
       <c r="H17">
-        <v>10.7108833383931</v>
+        <v>6.331728794209751</v>
       </c>
       <c r="I17">
-        <v>19.90411261034969</v>
+        <v>5.053713458894567</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>11.49803456861108</v>
       </c>
       <c r="K17">
-        <v>25.146813547958</v>
+        <v>21.13656151799036</v>
       </c>
       <c r="L17">
-        <v>5.272995389570099</v>
-      </c>
-      <c r="M17">
-        <v>19.08011696103723</v>
+        <v>6.566541176805075</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17">
+        <v>21.68512768351033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>7.226858984357709</v>
+        <v>5.102479203312229</v>
       </c>
       <c r="D18">
-        <v>4.548537511392702</v>
+        <v>6.491154096569949</v>
       </c>
       <c r="E18">
-        <v>7.706706381253595</v>
+        <v>10.38028147987559</v>
       </c>
       <c r="F18">
-        <v>24.87114300451012</v>
+        <v>30.89423532049385</v>
       </c>
       <c r="G18">
-        <v>34.26790523616771</v>
+        <v>40.90282471686102</v>
       </c>
       <c r="H18">
-        <v>10.7005777751446</v>
+        <v>5.265796651949617</v>
       </c>
       <c r="I18">
-        <v>19.81626795697446</v>
+        <v>5.034927290860292</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>11.67750753234643</v>
       </c>
       <c r="K18">
-        <v>24.83078987355773</v>
+        <v>21.44637969919003</v>
       </c>
       <c r="L18">
-        <v>5.28307127878894</v>
-      </c>
-      <c r="M18">
-        <v>18.83875540983714</v>
+        <v>6.930975879163118</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18">
+        <v>22.06957930661831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>7.206156540720582</v>
+        <v>5.006095406763614</v>
       </c>
       <c r="D19">
-        <v>4.548485539379651</v>
+        <v>7.018465303005509</v>
       </c>
       <c r="E19">
-        <v>7.698735478374857</v>
+        <v>11.69177447164878</v>
       </c>
       <c r="F19">
-        <v>24.8131529367866</v>
+        <v>32.20147735091469</v>
       </c>
       <c r="G19">
-        <v>34.17946477423508</v>
+        <v>42.23853411675786</v>
       </c>
       <c r="H19">
-        <v>10.69737725642134</v>
+        <v>4.212665838839444</v>
       </c>
       <c r="I19">
-        <v>19.78703261078008</v>
+        <v>5.060993780580125</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>11.9686960660008</v>
       </c>
       <c r="K19">
-        <v>24.72302302017842</v>
+        <v>21.98124820118895</v>
       </c>
       <c r="L19">
-        <v>5.286533756623483</v>
-      </c>
-      <c r="M19">
-        <v>18.75645935868893</v>
+        <v>7.531986985402169</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19">
+        <v>22.71993387916186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>7.299125211133617</v>
+        <v>4.981771967470927</v>
       </c>
       <c r="D20">
-        <v>4.548796720616759</v>
+        <v>7.941063035199608</v>
       </c>
       <c r="E20">
-        <v>7.734951000626991</v>
+        <v>14.05669284888875</v>
       </c>
       <c r="F20">
-        <v>25.07620142740539</v>
+        <v>34.79756072402755</v>
       </c>
       <c r="G20">
-        <v>34.58103677270304</v>
+        <v>45.21901827115533</v>
       </c>
       <c r="H20">
-        <v>10.71292923308273</v>
+        <v>3.731301518293664</v>
       </c>
       <c r="I20">
-        <v>19.92061300084985</v>
+        <v>5.209690713506525</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>12.58520340146869</v>
       </c>
       <c r="K20">
-        <v>25.20493918786456</v>
+        <v>23.20637757454996</v>
       </c>
       <c r="L20">
-        <v>5.27115495842897</v>
-      </c>
-      <c r="M20">
-        <v>19.12451510148806</v>
+        <v>8.690971783283494</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20">
+        <v>24.13448070565661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>7.607941464272355</v>
+        <v>5.186458656890936</v>
       </c>
       <c r="D21">
-        <v>4.551249313381649</v>
+        <v>8.266338106870732</v>
       </c>
       <c r="E21">
-        <v>7.862775863896278</v>
+        <v>14.80715648546005</v>
       </c>
       <c r="F21">
-        <v>25.99674427756934</v>
+        <v>36.71314854151689</v>
       </c>
       <c r="G21">
-        <v>35.99325470129532</v>
+        <v>47.96100934981884</v>
       </c>
       <c r="H21">
-        <v>10.78612192459117</v>
+        <v>4.059495640520843</v>
       </c>
       <c r="I21">
-        <v>20.40551174711352</v>
+        <v>5.473301818133224</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>13.11084572896954</v>
       </c>
       <c r="K21">
-        <v>26.77134967561623</v>
+        <v>24.38094686516101</v>
       </c>
       <c r="L21">
-        <v>5.223145523513337</v>
-      </c>
-      <c r="M21">
-        <v>20.32158249489957</v>
+        <v>9.062614002122384</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="Q21">
+        <v>25.39124414618006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
-        <v>7.806985958020546</v>
+        <v>5.344590213697053</v>
       </c>
       <c r="D22">
-        <v>4.553972087953049</v>
+        <v>8.429523554396164</v>
       </c>
       <c r="E22">
-        <v>7.951019636538982</v>
+        <v>15.17580676059633</v>
       </c>
       <c r="F22">
-        <v>26.62604473999398</v>
+        <v>37.85861688955978</v>
       </c>
       <c r="G22">
-        <v>36.96360993810573</v>
+        <v>49.63588711329621</v>
       </c>
       <c r="H22">
-        <v>10.85057483063298</v>
+        <v>4.260910061457434</v>
       </c>
       <c r="I22">
-        <v>20.75023182764843</v>
+        <v>5.639017969872065</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>13.43604050448932</v>
       </c>
       <c r="K22">
-        <v>27.7564702082259</v>
+        <v>25.11773064805297</v>
       </c>
       <c r="L22">
-        <v>5.194643520207625</v>
-      </c>
-      <c r="M22">
-        <v>21.0750288473597</v>
+        <v>9.246434746158442</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="Q22">
+        <v>26.16326933517164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
       <c r="C23">
-        <v>7.701014612482362</v>
+        <v>5.286157468802423</v>
       </c>
       <c r="D23">
-        <v>4.552411540064565</v>
+        <v>8.338116206893957</v>
       </c>
       <c r="E23">
-        <v>7.90348386266743</v>
+        <v>14.97868370919578</v>
       </c>
       <c r="F23">
-        <v>26.28762218633742</v>
+        <v>37.27801968692999</v>
       </c>
       <c r="G23">
-        <v>36.44134576498539</v>
+        <v>48.79585685777943</v>
       </c>
       <c r="H23">
-        <v>10.81458932846986</v>
+        <v>4.155089017173193</v>
       </c>
       <c r="I23">
-        <v>20.56364550390888</v>
+        <v>5.551118625519934</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>13.27385007038009</v>
       </c>
       <c r="K23">
-        <v>27.23417937846831</v>
+        <v>24.7604320133082</v>
       </c>
       <c r="L23">
-        <v>5.209582614324319</v>
-      </c>
-      <c r="M23">
-        <v>20.67550716398268</v>
+        <v>9.149925700688977</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="Q23">
+        <v>25.777021429167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
-        <v>7.294032732336024</v>
+        <v>5.013778301922748</v>
       </c>
       <c r="D24">
-        <v>4.548774507678396</v>
+        <v>7.993551002594668</v>
       </c>
       <c r="E24">
-        <v>7.73293940059628</v>
+        <v>14.21278712959982</v>
       </c>
       <c r="F24">
-        <v>25.0616185369653</v>
+        <v>34.96205481962225</v>
       </c>
       <c r="G24">
-        <v>34.55874843234474</v>
+        <v>45.41326810587859</v>
       </c>
       <c r="H24">
-        <v>10.71199897156843</v>
+        <v>3.743828681072209</v>
       </c>
       <c r="I24">
-        <v>19.91314401381826</v>
+        <v>5.211120507707621</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>12.62841928152141</v>
       </c>
       <c r="K24">
-        <v>25.17867486809233</v>
+        <v>23.30718776323145</v>
       </c>
       <c r="L24">
-        <v>5.27198606715291</v>
-      </c>
-      <c r="M24">
-        <v>19.10445341937264</v>
+        <v>8.773176146060047</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24">
+        <v>24.22987077167505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <v>6.84411638960766</v>
+        <v>4.698755459945643</v>
       </c>
       <c r="D25">
-        <v>4.549219829198325</v>
+        <v>7.610590762650951</v>
       </c>
       <c r="E25">
-        <v>7.568388111848617</v>
+        <v>13.34211621150996</v>
       </c>
       <c r="F25">
-        <v>23.85615746742071</v>
+        <v>32.31255052252765</v>
       </c>
       <c r="G25">
-        <v>32.72869564438789</v>
+        <v>41.50166045104965</v>
       </c>
       <c r="H25">
-        <v>10.66616651840405</v>
+        <v>3.281268011768374</v>
       </c>
       <c r="I25">
-        <v>19.32484228462194</v>
+        <v>4.83004835596955</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>11.90497703069132</v>
       </c>
       <c r="K25">
-        <v>22.79123207970898</v>
+        <v>21.64561692116336</v>
       </c>
       <c r="L25">
-        <v>5.350730231154702</v>
-      </c>
-      <c r="M25">
-        <v>17.28211569795471</v>
+        <v>8.347476766508672</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
-      <c r="O25">
-        <v>0</v>
+      <c r="Q25">
+        <v>22.46585526578453</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_45/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,989 +421,1139 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.519722647424145</v>
+        <v>3.762563645785775</v>
       </c>
       <c r="D2">
-        <v>7.307807560737585</v>
+        <v>7.473380487531197</v>
       </c>
       <c r="E2">
-        <v>12.66081514364213</v>
+        <v>12.65825726567351</v>
       </c>
       <c r="F2">
-        <v>30.3168806469533</v>
+        <v>28.96018870087245</v>
       </c>
       <c r="G2">
-        <v>38.54121147532179</v>
+        <v>35.59653246466604</v>
       </c>
       <c r="H2">
-        <v>2.926668092492482</v>
+        <v>2.80037522686787</v>
       </c>
       <c r="I2">
-        <v>4.538174935345003</v>
+        <v>4.347581498083398</v>
       </c>
       <c r="J2">
-        <v>11.38123682252856</v>
+        <v>11.48214062852104</v>
       </c>
       <c r="K2">
-        <v>20.44228730395639</v>
+        <v>18.7944060283291</v>
       </c>
       <c r="L2">
-        <v>8.021399430520463</v>
+        <v>16.39374474198129</v>
+      </c>
+      <c r="M2">
+        <v>12.13620436569631</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>21.15775880028374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>7.933797836819292</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>20.01938726066967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.347427534115156</v>
+        <v>3.625489674482827</v>
       </c>
       <c r="D3">
-        <v>7.104906290544727</v>
+        <v>7.248993236803041</v>
       </c>
       <c r="E3">
-        <v>12.17962886786712</v>
+        <v>12.1782087944294</v>
       </c>
       <c r="F3">
-        <v>28.84961989901604</v>
+        <v>27.6520335517588</v>
       </c>
       <c r="G3">
-        <v>36.32412618678375</v>
+        <v>33.62382585103059</v>
       </c>
       <c r="H3">
-        <v>2.673051119337126</v>
+        <v>2.565465131666215</v>
       </c>
       <c r="I3">
-        <v>4.330131604405999</v>
+        <v>4.171680105205087</v>
       </c>
       <c r="J3">
-        <v>10.99897374131941</v>
+        <v>11.15225808429395</v>
       </c>
       <c r="K3">
-        <v>19.5304374935322</v>
+        <v>18.07219653688342</v>
       </c>
       <c r="L3">
-        <v>7.789278927279267</v>
+        <v>16.13778095471594</v>
+      </c>
+      <c r="M3">
+        <v>11.22849317761555</v>
       </c>
       <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>20.19033832788251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>7.713307681857424</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>19.18815723046371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.234654983877919</v>
+        <v>3.539288228155831</v>
       </c>
       <c r="D4">
-        <v>6.978580858296106</v>
+        <v>7.109395157274013</v>
       </c>
       <c r="E4">
-        <v>11.87416265665416</v>
+        <v>11.87365706025038</v>
       </c>
       <c r="F4">
-        <v>27.91393401379201</v>
+        <v>26.81800777012126</v>
       </c>
       <c r="G4">
-        <v>34.89583133622002</v>
+        <v>32.35371815284886</v>
       </c>
       <c r="H4">
-        <v>2.511482359025803</v>
+        <v>2.415637048997113</v>
       </c>
       <c r="I4">
-        <v>4.197773737205936</v>
+        <v>4.059748578627421</v>
       </c>
       <c r="J4">
-        <v>10.759011390276</v>
+        <v>10.94382366342601</v>
       </c>
       <c r="K4">
-        <v>18.94862209637475</v>
+        <v>17.61120141036605</v>
       </c>
       <c r="L4">
-        <v>7.642285285474166</v>
+        <v>15.96906948315568</v>
+      </c>
+      <c r="M4">
+        <v>10.65484550899668</v>
       </c>
       <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>19.57491749869023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>7.573734278003544</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>18.65948925655435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.178922072209913</v>
+        <v>3.502565759606252</v>
       </c>
       <c r="D5">
-        <v>6.928055576830142</v>
+        <v>7.053506883667208</v>
       </c>
       <c r="E5">
-        <v>11.74766461927601</v>
+        <v>11.74763128057382</v>
       </c>
       <c r="F5">
-        <v>27.51526255890969</v>
+        <v>26.46204039281877</v>
       </c>
       <c r="G5">
-        <v>34.28071907347155</v>
+        <v>31.80546522189117</v>
       </c>
       <c r="H5">
-        <v>2.443772200533606</v>
+        <v>2.352819540255599</v>
       </c>
       <c r="I5">
-        <v>4.142310582547042</v>
+        <v>4.01305213887208</v>
       </c>
       <c r="J5">
-        <v>10.65675040495502</v>
+        <v>10.85442889195433</v>
       </c>
       <c r="K5">
-        <v>18.69535250262084</v>
+        <v>17.40878364294199</v>
       </c>
       <c r="L5">
-        <v>7.580935494739313</v>
+        <v>15.88968867477424</v>
+      </c>
+      <c r="M5">
+        <v>10.40952452989681</v>
       </c>
       <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>19.31133451773852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>7.515503493986173</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>18.43231771632507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.1597961889571</v>
+        <v>3.495260162523726</v>
       </c>
       <c r="D6">
-        <v>6.921292107665815</v>
+        <v>7.045913992135729</v>
       </c>
       <c r="E6">
-        <v>11.7270144950083</v>
+        <v>11.7271062430877</v>
       </c>
       <c r="F6">
-        <v>27.43752332587152</v>
+        <v>26.39184776508881</v>
       </c>
       <c r="G6">
-        <v>34.15726942183645</v>
+        <v>31.69371941724846</v>
       </c>
       <c r="H6">
-        <v>2.431978357372521</v>
+        <v>2.341891922526</v>
       </c>
       <c r="I6">
-        <v>4.132742068922538</v>
+        <v>4.005307102138267</v>
       </c>
       <c r="J6">
-        <v>10.63569124368269</v>
+        <v>10.8357513552305</v>
       </c>
       <c r="K6">
-        <v>18.63961764840184</v>
+        <v>17.36227439819875</v>
       </c>
       <c r="L6">
-        <v>7.570242991563982</v>
+        <v>15.86690237613209</v>
+      </c>
+      <c r="M6">
+        <v>10.35859865637604</v>
       </c>
       <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>19.25785039557327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>7.505363402544852</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>18.3853165278559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>4.207451724529164</v>
+        <v>3.53569300840214</v>
       </c>
       <c r="D7">
-        <v>6.982364745008475</v>
+        <v>7.116140388537402</v>
       </c>
       <c r="E7">
-        <v>11.87381551851365</v>
+        <v>11.87439141050338</v>
       </c>
       <c r="F7">
-        <v>27.87890949132445</v>
+        <v>26.76721005947908</v>
       </c>
       <c r="G7">
-        <v>34.8331994945081</v>
+        <v>32.39957848816225</v>
       </c>
       <c r="H7">
-        <v>2.50933197440181</v>
+        <v>2.41307993665905</v>
       </c>
       <c r="I7">
-        <v>4.196052906946908</v>
+        <v>4.058426636136585</v>
       </c>
       <c r="J7">
-        <v>10.74680055311859</v>
+        <v>10.87209206494509</v>
       </c>
       <c r="K7">
-        <v>18.90924514918449</v>
+        <v>17.56276647399396</v>
       </c>
       <c r="L7">
-        <v>7.640274082110153</v>
+        <v>15.93414492283287</v>
+      </c>
+      <c r="M7">
+        <v>10.61524460348793</v>
       </c>
       <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>19.54605469707462</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>7.571206477561286</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>18.61737010765943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.428101654602875</v>
+        <v>3.712596620373453</v>
       </c>
       <c r="D8">
-        <v>7.243968043214326</v>
+        <v>7.411659004950032</v>
       </c>
       <c r="E8">
-        <v>12.4987649327478</v>
+        <v>12.49986776855395</v>
       </c>
       <c r="F8">
-        <v>29.78132784740773</v>
+        <v>28.42530850274186</v>
       </c>
       <c r="G8">
-        <v>37.72370846221661</v>
+        <v>35.19234985398597</v>
       </c>
       <c r="H8">
-        <v>2.838829115723138</v>
+        <v>2.717234533804379</v>
       </c>
       <c r="I8">
-        <v>4.465935365700917</v>
+        <v>4.285449965786701</v>
       </c>
       <c r="J8">
-        <v>11.23679384706914</v>
+        <v>11.16351035873799</v>
       </c>
       <c r="K8">
-        <v>20.08738559332376</v>
+        <v>18.46944080240121</v>
       </c>
       <c r="L8">
-        <v>7.940809688414589</v>
+        <v>16.24986437183239</v>
+      </c>
+      <c r="M8">
+        <v>11.76339332780208</v>
       </c>
       <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>20.79703856493599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>7.855266885946698</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>19.65958594245638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4.849870644588624</v>
+        <v>4.047306658654469</v>
       </c>
       <c r="D9">
-        <v>7.733633555445405</v>
+        <v>7.955624898317433</v>
       </c>
       <c r="E9">
-        <v>13.63900492401362</v>
+        <v>13.63861361099161</v>
       </c>
       <c r="F9">
-        <v>33.27043765949033</v>
+        <v>31.53089889238308</v>
       </c>
       <c r="G9">
-        <v>42.93557038666839</v>
+        <v>39.88391576524113</v>
       </c>
       <c r="H9">
-        <v>3.441772263829608</v>
+        <v>3.274277125151603</v>
       </c>
       <c r="I9">
-        <v>4.961657398805478</v>
+        <v>4.703241738620902</v>
       </c>
       <c r="J9">
-        <v>12.16955346287224</v>
+        <v>11.92359610854441</v>
       </c>
       <c r="K9">
-        <v>22.27358690696963</v>
+        <v>20.20061869802908</v>
       </c>
       <c r="L9">
-        <v>8.495290327956722</v>
+        <v>16.8505288564702</v>
+      </c>
+      <c r="M9">
+        <v>13.94140335403924</v>
       </c>
       <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>23.11169758124461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>8.381819689974101</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>21.64437173140952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.120854383397002</v>
+        <v>4.275468956254066</v>
       </c>
       <c r="D10">
-        <v>8.002280292140426</v>
+        <v>8.273194729555296</v>
       </c>
       <c r="E10">
-        <v>14.20998953413598</v>
+        <v>14.21098379195341</v>
       </c>
       <c r="F10">
-        <v>35.43954841570604</v>
+        <v>33.36796756151557</v>
       </c>
       <c r="G10">
-        <v>46.19750822928478</v>
+        <v>43.29908297393759</v>
       </c>
       <c r="H10">
-        <v>3.839301915377422</v>
+        <v>3.637407811707964</v>
       </c>
       <c r="I10">
-        <v>5.298031492654435</v>
+        <v>4.984037298432753</v>
       </c>
       <c r="J10">
-        <v>12.7725580324123</v>
+        <v>12.10005955268268</v>
       </c>
       <c r="K10">
-        <v>23.65941106110853</v>
+        <v>21.23326207126139</v>
       </c>
       <c r="L10">
-        <v>8.769931622041085</v>
+        <v>17.13633388142799</v>
+      </c>
+      <c r="M10">
+        <v>15.31146265382235</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>24.58271440969753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>8.634717285744582</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>22.82862229139053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>5.266319076653445</v>
+        <v>4.318898563677835</v>
       </c>
       <c r="D11">
-        <v>7.440892411620055</v>
+        <v>7.716906942428066</v>
       </c>
       <c r="E11">
-        <v>12.68713148576006</v>
+        <v>12.66661354840695</v>
       </c>
       <c r="F11">
-        <v>34.71355580694237</v>
+        <v>32.44382635310285</v>
       </c>
       <c r="G11">
-        <v>45.81436970941593</v>
+        <v>43.92935347632662</v>
       </c>
       <c r="H11">
-        <v>4.358468455650964</v>
+        <v>4.171419734199692</v>
       </c>
       <c r="I11">
-        <v>5.387184768813309</v>
+        <v>5.055495987915483</v>
       </c>
       <c r="J11">
-        <v>12.64678901324938</v>
+        <v>11.31956762511969</v>
       </c>
       <c r="K11">
-        <v>23.5063882779299</v>
+        <v>20.9294668353108</v>
       </c>
       <c r="L11">
-        <v>8.005596398210756</v>
+        <v>16.7237305614021</v>
+      </c>
+      <c r="M11">
+        <v>15.3083515741449</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>24.35157468785919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>7.860571150138974</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>22.42238048236057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>5.38177254768364</v>
+        <v>4.332363514286073</v>
       </c>
       <c r="D12">
-        <v>6.92266812454692</v>
+        <v>7.176241117067904</v>
       </c>
       <c r="E12">
-        <v>11.36959775988139</v>
+        <v>11.31815031401611</v>
       </c>
       <c r="F12">
-        <v>33.66865388575079</v>
+        <v>31.3497438274355</v>
       </c>
       <c r="G12">
-        <v>44.86930696410738</v>
+        <v>43.51794484977434</v>
       </c>
       <c r="H12">
-        <v>5.257902949592852</v>
+        <v>5.104650123970895</v>
       </c>
       <c r="I12">
-        <v>5.396939287205146</v>
+        <v>5.061593352157831</v>
       </c>
       <c r="J12">
-        <v>12.42332821465099</v>
+        <v>10.82491953442848</v>
       </c>
       <c r="K12">
-        <v>23.12838413575774</v>
+        <v>20.53005929173273</v>
       </c>
       <c r="L12">
-        <v>7.380358654581514</v>
+        <v>16.36988650373556</v>
+      </c>
+      <c r="M12">
+        <v>15.0791634971944</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>23.8732638977698</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>7.234538922203646</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>21.89789403584739</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>5.448221288232542</v>
+        <v>4.323030642762109</v>
       </c>
       <c r="D13">
-        <v>6.411995957816173</v>
+        <v>6.614347659899909</v>
       </c>
       <c r="E13">
-        <v>10.14955092305608</v>
+        <v>10.05597529842182</v>
       </c>
       <c r="F13">
-        <v>32.24884814361527</v>
+        <v>30.02921496346506</v>
       </c>
       <c r="G13">
-        <v>43.33811157862629</v>
+        <v>41.98683494625624</v>
       </c>
       <c r="H13">
-        <v>6.323709677876153</v>
+        <v>6.20392106000199</v>
       </c>
       <c r="I13">
-        <v>5.345683159069758</v>
+        <v>5.01960152542058</v>
       </c>
       <c r="J13">
-        <v>12.09173593703871</v>
+        <v>10.61779923604893</v>
       </c>
       <c r="K13">
-        <v>22.49826762930802</v>
+        <v>20.00400781229724</v>
       </c>
       <c r="L13">
-        <v>6.836789230722731</v>
+        <v>16.01694687436211</v>
+      </c>
+      <c r="M13">
+        <v>14.6402396971879</v>
       </c>
       <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>23.13025899735384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>6.698867572730387</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>21.23714222510882</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>5.46685215350136</v>
+        <v>4.306338434905939</v>
       </c>
       <c r="D14">
-        <v>6.066066251151184</v>
+        <v>6.219707810068291</v>
       </c>
       <c r="E14">
-        <v>9.38439621775508</v>
+        <v>9.256689918671295</v>
       </c>
       <c r="F14">
-        <v>31.06064214316277</v>
+        <v>28.97767611947334</v>
       </c>
       <c r="G14">
-        <v>41.96653714358236</v>
+        <v>40.38187772351045</v>
       </c>
       <c r="H14">
-        <v>7.136812813746407</v>
+        <v>7.037516550886084</v>
       </c>
       <c r="I14">
-        <v>5.282523994308752</v>
+        <v>4.968962365291028</v>
       </c>
       <c r="J14">
-        <v>11.80494773798122</v>
+        <v>10.58874374304918</v>
       </c>
       <c r="K14">
-        <v>21.9270076937186</v>
+        <v>19.56303575616424</v>
       </c>
       <c r="L14">
-        <v>6.519479156196155</v>
+        <v>15.75922130291675</v>
+      </c>
+      <c r="M14">
+        <v>14.22505433552709</v>
       </c>
       <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>22.47530479195409</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>6.391423520890441</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>20.69778772355481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>5.44901040121971</v>
+        <v>4.291038729244759</v>
       </c>
       <c r="D15">
-        <v>5.982411488808818</v>
+        <v>6.120294662933546</v>
       </c>
       <c r="E15">
-        <v>9.208710425743368</v>
+        <v>9.072796859232614</v>
       </c>
       <c r="F15">
-        <v>30.68022821592263</v>
+        <v>28.66018453424897</v>
       </c>
       <c r="G15">
-        <v>41.48643440537171</v>
+        <v>39.74574341873018</v>
       </c>
       <c r="H15">
-        <v>7.321821972627399</v>
+        <v>7.227910470370155</v>
       </c>
       <c r="I15">
-        <v>5.253600839448454</v>
+        <v>4.946294112597081</v>
       </c>
       <c r="J15">
-        <v>11.70858773812203</v>
+        <v>10.62849104979539</v>
       </c>
       <c r="K15">
-        <v>21.72156868350751</v>
+        <v>19.4151237179177</v>
       </c>
       <c r="L15">
-        <v>6.449384127029098</v>
+        <v>15.68671490754237</v>
+      </c>
+      <c r="M15">
+        <v>14.06796928574524</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>22.25030502518439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>6.325234171723983</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>20.52660211654847</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>5.311036311532185</v>
+        <v>4.194572819124271</v>
       </c>
       <c r="D16">
-        <v>5.961450904245223</v>
+        <v>6.070460502152437</v>
       </c>
       <c r="E16">
-        <v>9.167891126020752</v>
+        <v>9.037969183107212</v>
       </c>
       <c r="F16">
-        <v>29.95776578792886</v>
+        <v>28.18952579275931</v>
       </c>
       <c r="G16">
-        <v>40.30306048592773</v>
+        <v>37.75208610571499</v>
       </c>
       <c r="H16">
-        <v>7.034799250220698</v>
+        <v>6.949563272085239</v>
       </c>
       <c r="I16">
-        <v>5.12181832241877</v>
+        <v>4.840966223522542</v>
       </c>
       <c r="J16">
-        <v>11.50119618464351</v>
+        <v>11.03200623237686</v>
       </c>
       <c r="K16">
-        <v>21.21499826530983</v>
+        <v>19.12902961226435</v>
       </c>
       <c r="L16">
-        <v>6.427228663130738</v>
+        <v>15.66354969353776</v>
+      </c>
+      <c r="M16">
+        <v>13.61354687331371</v>
       </c>
       <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>21.72815798950137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>6.314555676794821</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>20.222471753372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>5.191371775544627</v>
+        <v>4.129099647576377</v>
       </c>
       <c r="D17">
-        <v>6.127290081627533</v>
+        <v>6.242188643770645</v>
       </c>
       <c r="E17">
-        <v>9.525736606317777</v>
+        <v>9.417309416804894</v>
       </c>
       <c r="F17">
-        <v>30.05575920160079</v>
+        <v>28.38523988617552</v>
       </c>
       <c r="G17">
-        <v>40.14557771807999</v>
+        <v>37.22605419400362</v>
       </c>
       <c r="H17">
-        <v>6.331728794209751</v>
+        <v>6.243273885186404</v>
       </c>
       <c r="I17">
-        <v>5.053713458894567</v>
+        <v>4.785982775347478</v>
       </c>
       <c r="J17">
-        <v>11.49803456861108</v>
+        <v>11.28589796382596</v>
       </c>
       <c r="K17">
-        <v>21.13656151799036</v>
+        <v>19.13448784137211</v>
       </c>
       <c r="L17">
-        <v>6.566541176805075</v>
+        <v>15.77744877603084</v>
+      </c>
+      <c r="M17">
+        <v>13.47751126003956</v>
       </c>
       <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>21.68512768351033</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>6.456978272768973</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>20.26557655949834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>5.102479203312229</v>
+        <v>4.09673098458809</v>
       </c>
       <c r="D18">
-        <v>6.491154096569949</v>
+        <v>6.633929690604915</v>
       </c>
       <c r="E18">
-        <v>10.38028147987559</v>
+        <v>10.30409806350882</v>
       </c>
       <c r="F18">
-        <v>30.89423532049385</v>
+        <v>29.22853097537608</v>
       </c>
       <c r="G18">
-        <v>40.90282471686102</v>
+        <v>37.77650848133116</v>
       </c>
       <c r="H18">
-        <v>5.265796651949617</v>
+        <v>5.160091114425602</v>
       </c>
       <c r="I18">
-        <v>5.034927290860292</v>
+        <v>4.769797908684384</v>
       </c>
       <c r="J18">
-        <v>11.67750753234643</v>
+        <v>11.55484414016871</v>
       </c>
       <c r="K18">
-        <v>21.44637969919003</v>
+        <v>19.43872362140144</v>
       </c>
       <c r="L18">
-        <v>6.930975879163118</v>
+        <v>16.05624883592846</v>
+      </c>
+      <c r="M18">
+        <v>13.63993320076217</v>
       </c>
       <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>22.06957930661831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>6.819527017682455</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>20.65716704069203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>5.006095406763614</v>
+        <v>4.100525578583437</v>
       </c>
       <c r="D19">
-        <v>7.018465303005509</v>
+        <v>7.199625925463511</v>
       </c>
       <c r="E19">
-        <v>11.69177447164878</v>
+        <v>11.64934295972095</v>
       </c>
       <c r="F19">
-        <v>32.20147735091469</v>
+        <v>30.48117718504559</v>
       </c>
       <c r="G19">
-        <v>42.23853411675786</v>
+        <v>38.97749929274343</v>
       </c>
       <c r="H19">
-        <v>4.212665838839444</v>
+        <v>4.073492764561481</v>
       </c>
       <c r="I19">
-        <v>5.060993780580125</v>
+        <v>4.792019267377181</v>
       </c>
       <c r="J19">
-        <v>11.9686960660008</v>
+        <v>11.84298251754338</v>
       </c>
       <c r="K19">
-        <v>21.98124820118895</v>
+        <v>19.90921440962247</v>
       </c>
       <c r="L19">
-        <v>7.531986985402169</v>
+        <v>16.41183545594187</v>
+      </c>
+      <c r="M19">
+        <v>13.98920660929948</v>
       </c>
       <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>22.71993387916186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>7.41641233140711</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>21.2641133927276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>4.981771967470927</v>
+        <v>4.220679593871013</v>
       </c>
       <c r="D20">
-        <v>7.941063035199608</v>
+        <v>8.19024207946172</v>
       </c>
       <c r="E20">
-        <v>14.05669284888875</v>
+        <v>14.05435790145264</v>
       </c>
       <c r="F20">
-        <v>34.79756072402755</v>
+        <v>32.86566942279507</v>
       </c>
       <c r="G20">
-        <v>45.21901827115533</v>
+        <v>41.98574779798976</v>
       </c>
       <c r="H20">
-        <v>3.731301518293664</v>
+        <v>3.540562338481743</v>
       </c>
       <c r="I20">
-        <v>5.209690713506525</v>
+        <v>4.915143948801172</v>
       </c>
       <c r="J20">
-        <v>12.58520340146869</v>
+        <v>12.21524188500374</v>
       </c>
       <c r="K20">
-        <v>23.20637757454996</v>
+        <v>20.91104319792597</v>
       </c>
       <c r="L20">
-        <v>8.690971783283494</v>
+        <v>17.02357933633435</v>
+      </c>
+      <c r="M20">
+        <v>14.91434286405988</v>
       </c>
       <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>24.13448070565661</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>8.563522480284043</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>22.5011928129311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>5.186458656890936</v>
+        <v>4.397981812224976</v>
       </c>
       <c r="D21">
-        <v>8.266338106870732</v>
+        <v>8.607787928519043</v>
       </c>
       <c r="E21">
-        <v>14.80715648546005</v>
+        <v>14.82764511445615</v>
       </c>
       <c r="F21">
-        <v>36.71314854151689</v>
+        <v>34.25614432763845</v>
       </c>
       <c r="G21">
-        <v>47.96100934981884</v>
+        <v>46.35139651898549</v>
       </c>
       <c r="H21">
-        <v>4.059495640520843</v>
+        <v>3.832242966882291</v>
       </c>
       <c r="I21">
-        <v>5.473301818133224</v>
+        <v>5.125597785773159</v>
       </c>
       <c r="J21">
-        <v>13.11084572896954</v>
+        <v>11.44023531053523</v>
       </c>
       <c r="K21">
-        <v>24.38094686516101</v>
+        <v>21.62491133613656</v>
       </c>
       <c r="L21">
-        <v>9.062614002122384</v>
+        <v>17.19469493327109</v>
+      </c>
+      <c r="M21">
+        <v>15.88969266530998</v>
       </c>
       <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>25.39124414618006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>8.908666972092622</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>23.3049461510098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>5.344590213697053</v>
+        <v>4.508120963956078</v>
       </c>
       <c r="D22">
-        <v>8.429523554396164</v>
+        <v>8.831939562979269</v>
       </c>
       <c r="E22">
-        <v>15.17580676059633</v>
+        <v>15.21115823199107</v>
       </c>
       <c r="F22">
-        <v>37.85861688955978</v>
+        <v>35.05492104514519</v>
       </c>
       <c r="G22">
-        <v>49.63588711329621</v>
+        <v>49.15513971738486</v>
       </c>
       <c r="H22">
-        <v>4.260910061457434</v>
+        <v>4.010418098190667</v>
       </c>
       <c r="I22">
-        <v>5.639017969872065</v>
+        <v>5.256471789646476</v>
       </c>
       <c r="J22">
-        <v>13.43604050448932</v>
+        <v>10.87489312100531</v>
       </c>
       <c r="K22">
-        <v>25.11773064805297</v>
+        <v>22.06083300189046</v>
       </c>
       <c r="L22">
-        <v>9.246434746158442</v>
+        <v>17.28899968236621</v>
+      </c>
+      <c r="M22">
+        <v>16.49373254618499</v>
       </c>
       <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>26.16326933517164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>9.075309898554778</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>23.77685085609065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>5.286157468802423</v>
+        <v>4.448835394158535</v>
       </c>
       <c r="D23">
-        <v>8.338116206893957</v>
+        <v>8.701009473418404</v>
       </c>
       <c r="E23">
-        <v>14.97868370919578</v>
+        <v>15.00342961368941</v>
       </c>
       <c r="F23">
-        <v>37.27801968692999</v>
+        <v>34.69372949054555</v>
       </c>
       <c r="G23">
-        <v>48.79585685777943</v>
+        <v>47.50421111072654</v>
       </c>
       <c r="H23">
-        <v>4.155089017173193</v>
+        <v>3.917833829314598</v>
       </c>
       <c r="I23">
-        <v>5.551118625519934</v>
+        <v>5.18695397437448</v>
       </c>
       <c r="J23">
-        <v>13.27385007038009</v>
+        <v>11.31619884758361</v>
       </c>
       <c r="K23">
-        <v>24.7604320133082</v>
+        <v>21.88666495900107</v>
       </c>
       <c r="L23">
-        <v>9.149925700688977</v>
+        <v>17.27953991804129</v>
+      </c>
+      <c r="M23">
+        <v>16.21823703774109</v>
       </c>
       <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>25.777021429167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>8.989078226931955</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>23.58046822049116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>5.013778301922748</v>
+        <v>4.221914336611499</v>
       </c>
       <c r="D24">
-        <v>7.993551002594668</v>
+        <v>8.244952522609616</v>
       </c>
       <c r="E24">
-        <v>14.21278712959982</v>
+        <v>14.21239398296837</v>
       </c>
       <c r="F24">
-        <v>34.96205481962225</v>
+        <v>33.02673987186855</v>
       </c>
       <c r="G24">
-        <v>45.41326810587859</v>
+        <v>42.1543110181635</v>
       </c>
       <c r="H24">
-        <v>3.743828681072209</v>
+        <v>3.552460425801946</v>
       </c>
       <c r="I24">
-        <v>5.211120507707621</v>
+        <v>4.914429298405659</v>
       </c>
       <c r="J24">
-        <v>12.62841928152141</v>
+        <v>12.26528327509801</v>
       </c>
       <c r="K24">
-        <v>23.30718776323145</v>
+        <v>21.00602095600271</v>
       </c>
       <c r="L24">
-        <v>8.773176146060047</v>
+        <v>17.09679674713026</v>
+      </c>
+      <c r="M24">
+        <v>14.9831751013644</v>
       </c>
       <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>24.22987077167505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>8.64554023657438</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>22.5938353043449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>4.698755459945643</v>
+        <v>3.959107691507376</v>
       </c>
       <c r="D25">
-        <v>7.610590762650951</v>
+        <v>7.814551231038807</v>
       </c>
       <c r="E25">
-        <v>13.34211621150996</v>
+        <v>13.34094928882328</v>
       </c>
       <c r="F25">
-        <v>32.31255052252765</v>
+        <v>30.69649087054133</v>
       </c>
       <c r="G25">
-        <v>41.50166045104965</v>
+        <v>38.45673155275249</v>
       </c>
       <c r="H25">
-        <v>3.281268011768374</v>
+        <v>3.127022697552797</v>
       </c>
       <c r="I25">
-        <v>4.83004835596955</v>
+        <v>4.594677514698092</v>
       </c>
       <c r="J25">
-        <v>11.90497703069132</v>
+        <v>11.78605673638239</v>
       </c>
       <c r="K25">
-        <v>21.64561692116336</v>
+        <v>19.70909910280257</v>
       </c>
       <c r="L25">
-        <v>8.347476766508672</v>
+        <v>16.66918161679981</v>
+      </c>
+      <c r="M25">
+        <v>13.33975461437143</v>
       </c>
       <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>22.46585526578453</v>
+        <v>8.242279794175746</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>21.105005565337</v>
       </c>
     </row>
   </sheetData>
